--- a/Data/EconomicData/ALLECONDATA.xlsx
+++ b/Data/EconomicData/ALLECONDATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\CodingProjectsStuff\2023SummerResearch-Inflation\COVID-Inflation\Data\EconomicData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1F9835-23DD-4763-AE3D-500B482C2C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409B3815-9C90-46E6-BD57-65FCFC91B9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>RentalPriceAvg%Change</t>
+  </si>
+  <si>
+    <t>2008-9RecessionDummyVar</t>
   </si>
 </sst>
 </file>
@@ -6808,7 +6811,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$1</c:f>
+              <c:f>Sheet1!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6831,7 +6834,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$424</c:f>
+              <c:f>Sheet1!$R$2:$R$424</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="423"/>
@@ -25771,10 +25774,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q281"/>
+  <dimension ref="A1:R281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25792,11 +25796,11 @@
     <col min="13" max="13" width="14.33203125" customWidth="1"/>
     <col min="14" max="14" width="15.33203125" customWidth="1"/>
     <col min="15" max="15" width="12.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" customWidth="1"/>
-    <col min="17" max="17" width="16.88671875" customWidth="1"/>
+    <col min="16" max="17" width="16.33203125" customWidth="1"/>
+    <col min="18" max="18" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -25846,10 +25850,13 @@
         <v>16</v>
       </c>
       <c r="Q1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>36526</v>
       </c>
@@ -25857,10 +25864,13 @@
         <v>3</v>
       </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <v>3.5650623885918007</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>36557</v>
       </c>
@@ -25924,10 +25934,13 @@
         <v>0.22087244616234439</v>
       </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>7.109004739336493</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>36586</v>
       </c>
@@ -25991,10 +26004,13 @@
         <v>0.27548209366391185</v>
       </c>
       <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>9.8939929328620302</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>36617</v>
       </c>
@@ -26058,10 +26074,13 @@
         <v>0.16483516483517108</v>
       </c>
       <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>0.70093457943941173</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>36647</v>
       </c>
@@ -26125,10 +26144,13 @@
         <v>0.21941854086669077</v>
       </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>1.4010507880909886</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>36678</v>
       </c>
@@ -26192,10 +26214,13 @@
         <v>0.27367268746579093</v>
       </c>
       <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>6.2973760932945</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>36708</v>
       </c>
@@ -26259,10 +26284,13 @@
         <v>0.38209606986900496</v>
       </c>
       <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>2.7842227378190652</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>36739</v>
       </c>
@@ -26328,8 +26356,11 @@
       <c r="Q9">
         <v>0</v>
       </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>36770</v>
       </c>
@@ -26393,10 +26424,13 @@
         <v>0.37919826652221944</v>
       </c>
       <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>6.2499999999998419</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>36800</v>
       </c>
@@ -26460,10 +26494,13 @@
         <v>0.4317323259578969</v>
       </c>
       <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>2.0725388601037058</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>36831</v>
       </c>
@@ -26527,10 +26564,13 @@
         <v>0.37614185921548471</v>
       </c>
       <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>0.68965517241375396</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>36861</v>
       </c>
@@ -26594,10 +26634,13 @@
         <v>0.42826552462525852</v>
       </c>
       <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>-0.68925904652494652</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>36892</v>
       </c>
@@ -26661,10 +26704,13 @@
         <v>0.31982942430703321</v>
       </c>
       <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>7.5862068965516842</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>36923</v>
       </c>
@@ -26728,10 +26774,13 @@
         <v>0.37194473963869129</v>
       </c>
       <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>4.7972587093090828</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>36951</v>
       </c>
@@ -26795,10 +26844,13 @@
         <v>0.37056643726838995</v>
       </c>
       <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>2.7303754266210052</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>36982</v>
       </c>
@@ -26862,10 +26914,13 @@
         <v>0.31645569620252867</v>
       </c>
       <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>4.7673098751420007</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>37012</v>
       </c>
@@ -26929,10 +26984,13 @@
         <v>0.4206098843322878</v>
       </c>
       <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>5.4267947993215344</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>37043</v>
       </c>
@@ -26996,10 +27054,13 @@
         <v>0.31413612565444726</v>
       </c>
       <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <v>2.0258863252673813</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>37073</v>
       </c>
@@ -27063,10 +27124,13 @@
         <v>0.36534446764092748</v>
       </c>
       <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>-3.3707865168539328</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>37104</v>
       </c>
@@ -27132,8 +27196,11 @@
       <c r="Q21">
         <v>0</v>
       </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>37135</v>
       </c>
@@ -27197,10 +27264,13 @@
         <v>0.41429311237701261</v>
       </c>
       <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
         <v>5.4084507042254293</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>37165</v>
       </c>
@@ -27264,10 +27334,13 @@
         <v>0.4125838060856023</v>
       </c>
       <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
         <v>-4.0381379697141178</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>37196</v>
       </c>
@@ -27331,10 +27404,13 @@
         <v>0.41088854648177264</v>
       </c>
       <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
         <v>-2.025886325267189</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>37226</v>
       </c>
@@ -27398,10 +27474,13 @@
         <v>0.46035805626598758</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
         <v>-4.7350620067644895</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>37257</v>
       </c>
@@ -27465,10 +27544,13 @@
         <v>0.30549898167005818</v>
       </c>
       <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
         <v>2.716468590831957</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>37288</v>
       </c>
@@ -27532,10 +27614,13 @@
         <v>0.35532994923857292</v>
       </c>
       <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
         <v>4.7430830039526839</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>37316</v>
       </c>
@@ -27599,10 +27684,13 @@
         <v>0.25290844714213456</v>
       </c>
       <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
         <v>6.7491563554555682</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>37347</v>
       </c>
@@ -27666,10 +27754,13 @@
         <v>0.15136226034309352</v>
       </c>
       <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
         <v>6.7114093959731527</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>37377</v>
       </c>
@@ -27735,8 +27826,11 @@
       <c r="Q30">
         <v>0</v>
       </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>37408</v>
       </c>
@@ -27800,10 +27894,13 @@
         <v>0.25150905432595572</v>
       </c>
       <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
         <v>0.66740823136814886</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>37438</v>
       </c>
@@ -27867,10 +27964,13 @@
         <v>0.25087807325639738</v>
       </c>
       <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
         <v>1.3340744858253828</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>37469</v>
       </c>
@@ -27934,10 +28034,13 @@
         <v>0.2002002002001888</v>
       </c>
       <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
         <v>3.9977790116601506</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>37500</v>
       </c>
@@ -28001,10 +28104,13 @@
         <v>0.24975024975024976</v>
       </c>
       <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
         <v>1.9922523519646578</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>37530</v>
       </c>
@@ -28068,10 +28174,13 @@
         <v>0.29895366218237307</v>
       </c>
       <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
         <v>1.9889502762431694</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>37561</v>
       </c>
@@ -28137,8 +28246,11 @@
       <c r="Q36">
         <v>0</v>
       </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>37591</v>
       </c>
@@ -28202,10 +28314,13 @@
         <v>0.24752475247524752</v>
       </c>
       <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
         <v>-2.6475455046883996</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37622</v>
       </c>
@@ -28269,10 +28384,13 @@
         <v>0.39506172839506737</v>
       </c>
       <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
         <v>5.3067993366499699</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37653</v>
       </c>
@@ -28336,10 +28454,13 @@
         <v>0.19675356615837541</v>
       </c>
       <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
         <v>9.2460099064392232</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>37681</v>
       </c>
@@ -28403,10 +28524,13 @@
         <v>0.19636720667648785</v>
       </c>
       <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
         <v>7.209175314036008</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>37712</v>
       </c>
@@ -28470,10 +28594,13 @@
         <v>0.19598236158745991</v>
       </c>
       <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
         <v>-2.6058631921822624</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>37742</v>
       </c>
@@ -28537,10 +28664,13 @@
         <v>0.19559902200489276</v>
       </c>
       <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
         <v>-1.9586507072906074</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>37773</v>
       </c>
@@ -28604,10 +28734,13 @@
         <v>9.7608589555875369E-2</v>
       </c>
       <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
         <v>1.3079019073568738</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>37803</v>
       </c>
@@ -28671,10 +28804,13 @@
         <v>0.24378352023403219</v>
       </c>
       <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
         <v>1.3064779531846515</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>37834</v>
       </c>
@@ -28738,10 +28874,13 @@
         <v>0.24319066147859922</v>
       </c>
       <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
         <v>4.5676998368677886</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>37865</v>
       </c>
@@ -28805,10 +28944,13 @@
         <v>0.24260067928190202</v>
       </c>
       <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
         <v>3.9003250270855534</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>37895</v>
       </c>
@@ -28872,10 +29014,13 @@
         <v>0.14520813165537821</v>
       </c>
       <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
         <v>-1.2958963282936629</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>37926</v>
       </c>
@@ -28939,10 +29084,13 @@
         <v>0.28999516674721815</v>
       </c>
       <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
         <v>-3.2432432432432434</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>37956</v>
       </c>
@@ -29006,10 +29154,13 @@
         <v>0.19277108433735216</v>
       </c>
       <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
         <v>-1.3008130081300076</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>37987</v>
       </c>
@@ -29073,10 +29224,13 @@
         <v>0.19240019240019515</v>
       </c>
       <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
         <v>5.8600108518717988</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>38018</v>
       </c>
@@ -29140,10 +29294,13 @@
         <v>0.2400384061449832</v>
       </c>
       <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
         <v>6.4794816414686833</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>38047</v>
       </c>
@@ -29207,10 +29364,13 @@
         <v>0.19157088122604274</v>
       </c>
       <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
         <v>7.7336197636950628</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>38078</v>
       </c>
@@ -29274,10 +29434,13 @@
         <v>0.23900573613766732</v>
       </c>
       <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
         <v>3.8420490928494835</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>38108</v>
       </c>
@@ -29341,10 +29504,13 @@
         <v>0.23843586075345735</v>
       </c>
       <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
         <v>7.0212765957446432</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>38139</v>
       </c>
@@ -29408,10 +29574,13 @@
         <v>0.23786869647954328</v>
       </c>
       <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
         <v>3.8075092543627349</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>38169</v>
       </c>
@@ -29475,10 +29644,13 @@
         <v>0.23730422401518747</v>
       </c>
       <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
         <v>-1.8977332630468084</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>38200</v>
       </c>
@@ -29542,10 +29714,13 @@
         <v>0.33143939393940203</v>
       </c>
       <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
         <v>0.63357972544874952</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>38231</v>
       </c>
@@ -29609,10 +29784,13 @@
         <v>0.23596035865974516</v>
       </c>
       <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
         <v>2.5329815303430436</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>38261</v>
       </c>
@@ -29676,10 +29854,13 @@
         <v>0.18832391713747915</v>
       </c>
       <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
         <v>6.3191153238546605</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>38292</v>
       </c>
@@ -29743,10 +29924,13 @@
         <v>0.18796992481201938</v>
       </c>
       <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
         <v>0.62860136196958183</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>38322</v>
       </c>
@@ -29810,10 +29994,13 @@
         <v>0.32833020637899485</v>
       </c>
       <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
         <v>-4.3979057591622324</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>38353</v>
       </c>
@@ -29877,10 +30064,13 @@
         <v>0.28050490883590196</v>
       </c>
       <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
         <v>2.5223331581711648</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>38384</v>
       </c>
@@ -29944,10 +30134,13 @@
         <v>0.23310023310023309</v>
       </c>
       <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
         <v>6.9218668065025035</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>38412</v>
       </c>
@@ -30011,10 +30204,13 @@
         <v>0.23255813953488372</v>
       </c>
       <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
         <v>9.3847758081334725</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>38443</v>
       </c>
@@ -30078,10 +30274,13 @@
         <v>0.23201856148491878</v>
       </c>
       <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
         <v>8.0703569580961165</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>38473</v>
       </c>
@@ -30145,10 +30344,13 @@
         <v>0.18518518518518781</v>
       </c>
       <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
         <v>-1.2332990750256239</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>38504</v>
       </c>
@@ -30212,10 +30414,13 @@
         <v>0.18484288354898598</v>
       </c>
       <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
         <v>0.61728395061724883</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>38534</v>
       </c>
@@ -30279,10 +30484,13 @@
         <v>0.32287822878228256</v>
       </c>
       <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
         <v>5.5526992287918091</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>38565</v>
       </c>
@@ -30346,10 +30554,13 @@
         <v>0.22988505747126436</v>
       </c>
       <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
         <v>6.1412487205731825</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>38596</v>
       </c>
@@ -30413,10 +30624,13 @@
         <v>0.27522935779816254</v>
       </c>
       <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
         <v>14.663951120162968</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>38626</v>
       </c>
@@ -30480,10 +30694,13 @@
         <v>0.3202195791399895</v>
       </c>
       <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
         <v>2.4144869215290381</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>38657</v>
       </c>
@@ -30547,10 +30764,13 @@
         <v>0.31919744642042341</v>
       </c>
       <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
         <v>-9.6385542168674352</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>38687</v>
       </c>
@@ -30614,10 +30834,13 @@
         <v>0.22727272727272727</v>
       </c>
       <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
         <v>-4.8582995951415979</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>38718</v>
       </c>
@@ -30681,10 +30904,13 @@
         <v>0.18140589569161256</v>
       </c>
       <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
         <v>9.1463414634146343</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>38749</v>
       </c>
@@ -30748,10 +30974,13 @@
         <v>0.31688546853779476</v>
       </c>
       <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
         <v>2.4205748865354146</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>38777</v>
       </c>
@@ -30815,10 +31044,13 @@
         <v>0.31588447653430374</v>
       </c>
       <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
         <v>6.6431806743836299</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>38808</v>
       </c>
@@ -30882,10 +31114,13 @@
         <v>0.26990553306342524</v>
       </c>
       <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
         <v>10.210210210210139</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>38838</v>
       </c>
@@ -30949,10 +31184,13 @@
         <v>0.31404217137729412</v>
       </c>
       <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
         <v>5.9553349875930524</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>38869</v>
       </c>
@@ -31016,10 +31254,13 @@
         <v>0.3577817531305954</v>
       </c>
       <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
         <v>2.370370370370404</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>38899</v>
       </c>
@@ -31083,10 +31324,13 @@
         <v>0.35650623885917243</v>
       </c>
       <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
         <v>3.5485460818136669</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>38930</v>
       </c>
@@ -31150,10 +31394,13 @@
         <v>0.44404973357015992</v>
       </c>
       <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
         <v>2.3587223587223924</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>38961</v>
       </c>
@@ -31217,10 +31464,13 @@
         <v>0.39787798408488317</v>
       </c>
       <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
         <v>-5.8852378616969103</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>38991</v>
       </c>
@@ -31284,10 +31534,13 @@
         <v>0.39630118890356919</v>
       </c>
       <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
         <v>-6.5056678166584181</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>39022</v>
       </c>
@@ -31351,10 +31604,13 @@
         <v>0.39473684210526566</v>
       </c>
       <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
         <v>-1.7839444995045275</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>39052</v>
       </c>
@@ -31418,10 +31674,13 @@
         <v>0.48055919615552395</v>
       </c>
       <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
         <v>1.7866004962779831</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>39083</v>
       </c>
@@ -31485,10 +31744,13 @@
         <v>0.3504347826087007</v>
       </c>
       <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
         <v>3.6630327056490706</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>39114</v>
       </c>
@@ -31552,10 +31814,13 @@
         <v>0.40423559179570401</v>
       </c>
       <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
         <v>6.4204410718520171</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>39142</v>
       </c>
@@ -31619,10 +31884,13 @@
         <v>0.3262290766767787</v>
       </c>
       <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
         <v>10.926835021302368</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>39173</v>
       </c>
@@ -31686,10 +31954,13 @@
         <v>0.20860663670185819</v>
       </c>
       <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
         <v>7.795395223810841</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>39203</v>
       </c>
@@ -31753,10 +32024,13 @@
         <v>0.24422697227230528</v>
       </c>
       <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
         <v>7.3328624096455792</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>39234</v>
       </c>
@@ -31820,10 +32094,13 @@
         <v>0.22350770073945569</v>
       </c>
       <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
         <v>2.3255702119269142</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>39264</v>
       </c>
@@ -31887,10 +32164,13 @@
         <v>0.28239294914790869</v>
       </c>
       <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
         <v>-0.30525264936260138</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>39295</v>
       </c>
@@ -31954,10 +32234,13 @@
         <v>0.24666428096723403</v>
       </c>
       <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
         <v>-2.2006826725044575</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>39326</v>
       </c>
@@ -32021,10 +32304,13 @@
         <v>0.31745222280300778</v>
       </c>
       <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
         <v>3.3070888864306864</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>39356</v>
       </c>
@@ -32088,10 +32374,13 @@
         <v>0.45624380448872659</v>
       </c>
       <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
         <v>2.5670295937454912</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>39387</v>
       </c>
@@ -32155,10 +32444,13 @@
         <v>0.43603854344572512</v>
       </c>
       <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
         <v>7.1275414480988566</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>39417</v>
       </c>
@@ -32222,10 +32514,13 @@
         <v>0.39173863936952025</v>
       </c>
       <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
         <v>-0.80503575557739127</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>39448</v>
       </c>
@@ -32289,10 +32584,13 @@
         <v>0.31283719918695385</v>
       </c>
       <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
         <v>5.9646917671257</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>39479</v>
       </c>
@@ -32356,10 +32654,13 @@
         <v>0.19804044194287859</v>
       </c>
       <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
         <v>3.4849346219442836</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>39508</v>
       </c>
@@ -32423,10 +32724,13 @@
         <v>0.22844065328201671</v>
       </c>
       <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
         <v>10.401855517187508</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>39539</v>
       </c>
@@ -32490,10 +32794,13 @@
         <v>0.24909288673746205</v>
       </c>
       <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
         <v>7.2777340676633475</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>39569</v>
       </c>
@@ -32557,10 +32864,13 @@
         <v>0.13624655242386663</v>
       </c>
       <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
         <v>10.105063238107636</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>39600</v>
       </c>
@@ -32624,10 +32934,13 @@
         <v>0.34614955149439386</v>
       </c>
       <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
         <v>12.092396321872997</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>39630</v>
       </c>
@@ -32691,10 +33004,13 @@
         <v>0.29962083745466694</v>
       </c>
       <c r="Q104">
+        <v>1</v>
+      </c>
+      <c r="R104">
         <v>6.3012133537463209</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>39661</v>
       </c>
@@ -32758,10 +33074,13 @@
         <v>0.33447427136794283</v>
       </c>
       <c r="Q105">
+        <v>1</v>
+      </c>
+      <c r="R105">
         <v>-4.7898747067701217</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>39692</v>
       </c>
@@ -32825,10 +33144,13 @@
         <v>0.30510154352712787</v>
       </c>
       <c r="Q106">
+        <v>1</v>
+      </c>
+      <c r="R106">
         <v>-1.6596222487974166</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>39722</v>
       </c>
@@ -32892,10 +33214,13 @@
         <v>0.37929823701852888</v>
       </c>
       <c r="Q107">
+        <v>1</v>
+      </c>
+      <c r="R107">
         <v>-12.121599941494429</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>39753</v>
       </c>
@@ -32959,10 +33284,13 @@
         <v>0.3359703890504655</v>
       </c>
       <c r="Q108">
+        <v>1</v>
+      </c>
+      <c r="R108">
         <v>-22.98347439431506</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>39783</v>
       </c>
@@ -33026,10 +33354,13 @@
         <v>0.24201296411153675</v>
       </c>
       <c r="Q109">
+        <v>1</v>
+      </c>
+      <c r="R109">
         <v>-12.410968577144889</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>39814</v>
       </c>
@@ -33093,10 +33424,13 @@
         <v>0.28146458641690647</v>
       </c>
       <c r="Q110">
+        <v>1</v>
+      </c>
+      <c r="R110">
         <v>5.2229008505051207</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>39845</v>
       </c>
@@ -33160,10 +33494,13 @@
         <v>0.13348173598845739</v>
       </c>
       <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111">
         <v>5.9675196430855566</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>39873</v>
       </c>
@@ -33227,10 +33564,13 @@
         <v>0.1345119913010222</v>
       </c>
       <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
         <v>2.9180981464986564</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>39904</v>
       </c>
@@ -33294,10 +33634,13 @@
         <v>0.1045692751338249</v>
       </c>
       <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
         <v>2.9956419333455897</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>39934</v>
       </c>
@@ -33361,10 +33704,13 @@
         <v>6.8300796708700109E-2</v>
       </c>
       <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
         <v>3.4665166010128612</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>39965</v>
       </c>
@@ -33428,10 +33774,13 @@
         <v>9.2343888641398791E-3</v>
       </c>
       <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
         <v>10.307870716744075</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>39995</v>
       </c>
@@ -33495,10 +33844,13 @@
         <v>-3.9342893388793369E-2</v>
       </c>
       <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116">
         <v>-1.9027043065839666</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>40026</v>
       </c>
@@ -33562,10 +33914,13 @@
         <v>1.4056563611973216E-2</v>
       </c>
       <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117">
         <v>2.6914200537727009</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>40057</v>
       </c>
@@ -33629,10 +33984,13 @@
         <v>-2.5699818093472226E-2</v>
       </c>
       <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="R118">
         <v>0.75057683219506233</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>40087</v>
       </c>
@@ -33696,10 +34054,13 @@
         <v>-3.0928042094269546E-2</v>
       </c>
       <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119">
         <v>1.1557214229819932</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>40118</v>
       </c>
@@ -33763,10 +34124,13 @@
         <v>-8.0357429848347431E-4</v>
       </c>
       <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
         <v>0.84930404252082337</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>40148</v>
       </c>
@@ -33830,10 +34194,13 @@
         <v>4.540231270541515E-2</v>
       </c>
       <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121">
         <v>-2.1134378033559851</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>40179</v>
       </c>
@@ -33897,10 +34264,13 @@
         <v>5.8233165595046661E-2</v>
       </c>
       <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
         <v>4.1009682841782062</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>40210</v>
       </c>
@@ -33964,10 +34334,13 @@
         <v>-5.0974536814055137E-2</v>
       </c>
       <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123">
         <v>0.29904885849175289</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>40238</v>
       </c>
@@ -34031,10 +34404,13 @@
         <v>2.8913688623669359E-2</v>
       </c>
       <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124">
         <v>4.927540243885483</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>40269</v>
       </c>
@@ -34098,10 +34474,13 @@
         <v>-3.0912645680860325E-2</v>
       </c>
       <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
         <v>2.0842618928368801</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>40299</v>
       </c>
@@ -34165,10 +34544,13 @@
         <v>-3.4938075273476407E-2</v>
       </c>
       <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126">
         <v>0.93023682508526429</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>40330</v>
       </c>
@@ -34232,10 +34614,13 @@
         <v>2.9727829667564064E-2</v>
       </c>
       <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127">
         <v>-1.1715205016087444</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>40360</v>
       </c>
@@ -34299,10 +34684,13 @@
         <v>5.1004220900489387E-2</v>
       </c>
       <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="R128">
         <v>0.25325166884587302</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>40391</v>
       </c>
@@ -34366,10 +34754,13 @@
         <v>-4.0943137207679593E-2</v>
       </c>
       <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129">
         <v>1.656797134089653</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>40422</v>
       </c>
@@ -34433,10 +34824,13 @@
         <v>0.13813929581084317</v>
       </c>
       <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130">
         <v>0.69808347685870376</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>40452</v>
       </c>
@@ -34500,10 +34894,13 @@
         <v>0.10025344069808477</v>
       </c>
       <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
         <v>1.4942386661723581</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>40483</v>
       </c>
@@ -34567,10 +34964,13 @@
         <v>0.28002788260462474</v>
       </c>
       <c r="Q132">
+        <v>0</v>
+      </c>
+      <c r="R132">
         <v>0.50477570858338838</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>40513</v>
       </c>
@@ -34634,10 +35034,13 @@
         <v>0.26726111290882471</v>
       </c>
       <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="R133">
         <v>2.0621289470437136</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>40544</v>
       </c>
@@ -34701,10 +35104,13 @@
         <v>0.2267058720406783</v>
       </c>
       <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134">
         <v>5.7158760647690396</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>40575</v>
       </c>
@@ -34768,10 +35174,13 @@
         <v>0.10892250203732817</v>
       </c>
       <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="R135">
         <v>5.9176380305416831</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>40603</v>
       </c>
@@ -34835,10 +35244,13 @@
         <v>0.12548197387910148</v>
       </c>
       <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
         <v>11.701286436611339</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>40634</v>
       </c>
@@ -34902,10 +35314,13 @@
         <v>3.0141386900391996E-2</v>
       </c>
       <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
         <v>7.7273154425485266</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>40664</v>
       </c>
@@ -34969,10 +35384,13 @@
         <v>6.8194163055414522E-2</v>
       </c>
       <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138">
         <v>5.6450250326802802</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>40695</v>
       </c>
@@ -35036,10 +35454,13 @@
         <v>7.8845292856779811E-2</v>
       </c>
       <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139">
         <v>-1.2851604680391047</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>40725</v>
       </c>
@@ -35103,10 +35524,13 @@
         <v>0.19517641097105015</v>
       </c>
       <c r="Q140">
+        <v>0</v>
+      </c>
+      <c r="R140">
         <v>1.0632548001523392</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>40756</v>
       </c>
@@ -35170,10 +35594,13 @@
         <v>0.36272398601259576</v>
       </c>
       <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141">
         <v>3.3091066828373887</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>40787</v>
       </c>
@@ -35237,10 +35664,13 @@
         <v>0.24606008590449721</v>
       </c>
       <c r="Q142">
+        <v>0</v>
+      </c>
+      <c r="R142">
         <v>1.8221545388334635</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>40817</v>
       </c>
@@ -35304,10 +35734,13 @@
         <v>0.40176257128046583</v>
       </c>
       <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
         <v>-2.4752191600298881</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>40848</v>
       </c>
@@ -35371,10 +35804,13 @@
         <v>0.28006931324344836</v>
       </c>
       <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144">
         <v>-1.0122735965303704</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>40878</v>
       </c>
@@ -35438,10 +35874,13 @@
         <v>0.32063409097114787</v>
       </c>
       <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="R145">
         <v>-2.9598196525659342</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>40909</v>
       </c>
@@ -35505,10 +35944,13 @@
         <v>0.20413003666563392</v>
       </c>
       <c r="Q146">
+        <v>0</v>
+      </c>
+      <c r="R146">
         <v>5.2802297139210621</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>40940</v>
       </c>
@@ -35572,10 +36014,13 @@
         <v>0.18237270773028524</v>
       </c>
       <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="R147">
         <v>5.2835682615314354</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>40969</v>
       </c>
@@ -35639,10 +36084,13 @@
         <v>0.1491184581538712</v>
       </c>
       <c r="Q148">
+        <v>0</v>
+      </c>
+      <c r="R148">
         <v>9.1134703487171027</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>41000</v>
       </c>
@@ -35706,10 +36154,13 @@
         <v>0.13652061925443831</v>
       </c>
       <c r="Q149">
+        <v>0</v>
+      </c>
+      <c r="R149">
         <v>3.6252354048964852</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>41030</v>
       </c>
@@ -35773,10 +36224,13 @@
         <v>0.11934095982572707</v>
       </c>
       <c r="Q150">
+        <v>0</v>
+      </c>
+      <c r="R150">
         <v>-1.4081752395854239</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>41061</v>
       </c>
@@ -35840,10 +36294,13 @@
         <v>6.7893114635204796E-2</v>
       </c>
       <c r="Q151">
+        <v>0</v>
+      </c>
+      <c r="R151">
         <v>-1.7596762613405865</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>41091</v>
       </c>
@@ -35907,10 +36364,13 @@
         <v>0.2698462262005441</v>
       </c>
       <c r="Q152">
+        <v>0</v>
+      </c>
+      <c r="R152">
         <v>-1.9557430341906166</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>41122</v>
       </c>
@@ -35974,10 +36434,13 @@
         <v>0.21914058445178064</v>
       </c>
       <c r="Q153">
+        <v>0</v>
+      </c>
+      <c r="R153">
         <v>6.6781898177245829</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>41153</v>
       </c>
@@ -36041,10 +36504,13 @@
         <v>0.28541068065075603</v>
       </c>
       <c r="Q154">
+        <v>0</v>
+      </c>
+      <c r="R154">
         <v>5.3546547211335405</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>41183</v>
       </c>
@@ -36108,10 +36574,13 @@
         <v>0.4919268153667844</v>
       </c>
       <c r="Q155">
+        <v>0</v>
+      </c>
+      <c r="R155">
         <v>-0.46671016866388693</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>41214</v>
       </c>
@@ -36175,10 +36644,13 @@
         <v>0.25046915384820939</v>
       </c>
       <c r="Q156">
+        <v>0</v>
+      </c>
+      <c r="R156">
         <v>-5.6857040338583165</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>41244</v>
       </c>
@@ -36242,10 +36714,13 @@
         <v>0.27832096140337709</v>
       </c>
       <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="R157">
         <v>-3.2316773882487064</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>41275</v>
       </c>
@@ -36309,10 +36784,13 @@
         <v>0.227945686828365</v>
       </c>
       <c r="Q158">
+        <v>0</v>
+      </c>
+      <c r="R158">
         <v>3.5487650315111976</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>41306</v>
       </c>
@@ -36376,10 +36854,13 @@
         <v>0.21004911220248706</v>
       </c>
       <c r="Q159">
+        <v>0</v>
+      </c>
+      <c r="R159">
         <v>9.8280354351224375</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>41334</v>
       </c>
@@ -36443,10 +36924,13 @@
         <v>0.21300177941311585</v>
       </c>
       <c r="Q160">
+        <v>0</v>
+      </c>
+      <c r="R160">
         <v>3.1374103012499637</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>41365</v>
       </c>
@@ -36510,10 +36994,13 @@
         <v>6.1319459335400166E-2</v>
       </c>
       <c r="Q161">
+        <v>0</v>
+      </c>
+      <c r="R161">
         <v>-1.2475673725044927</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>41395</v>
       </c>
@@ -36577,10 +37064,13 @@
         <v>0.21617841674688912</v>
       </c>
       <c r="Q162">
+        <v>0</v>
+      </c>
+      <c r="R162">
         <v>2.1364893283045476</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>41426</v>
       </c>
@@ -36644,10 +37134,13 @@
         <v>0.12980240772209783</v>
       </c>
       <c r="Q163">
+        <v>0</v>
+      </c>
+      <c r="R163">
         <v>2.8796497027195129</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>41456</v>
       </c>
@@ -36711,10 +37204,13 @@
         <v>0.21618178752741804</v>
       </c>
       <c r="Q164">
+        <v>0</v>
+      </c>
+      <c r="R164">
         <v>0.47279703987946908</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>41487</v>
       </c>
@@ -36778,10 +37274,13 @@
         <v>0.38245564187495518</v>
       </c>
       <c r="Q165">
+        <v>0</v>
+      </c>
+      <c r="R165">
         <v>1.4435178684566818</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>41518</v>
       </c>
@@ -36845,10 +37344,13 @@
         <v>0.23537736727435432</v>
       </c>
       <c r="Q166">
+        <v>0</v>
+      </c>
+      <c r="R166">
         <v>1.3956053823163015</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>41548</v>
       </c>
@@ -36912,10 +37414,13 @@
         <v>0.30579221734654805</v>
       </c>
       <c r="Q167">
+        <v>0</v>
+      </c>
+      <c r="R167">
         <v>-3.0903399117656294</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>41579</v>
       </c>
@@ -36979,10 +37484,13 @@
         <v>0.27337383316046804</v>
       </c>
       <c r="Q168">
+        <v>0</v>
+      </c>
+      <c r="R168">
         <v>-2.4509090286282129</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>41609</v>
       </c>
@@ -37046,10 +37554,13 @@
         <v>0.36572120961366877</v>
       </c>
       <c r="Q169">
+        <v>0</v>
+      </c>
+      <c r="R169">
         <v>-0.10297379745902789</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>41640</v>
       </c>
@@ -37113,10 +37624,13 @@
         <v>0.23151556196814696</v>
       </c>
       <c r="Q170">
+        <v>0</v>
+      </c>
+      <c r="R170">
         <v>4.4642972078832699</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>41671</v>
       </c>
@@ -37180,10 +37694,13 @@
         <v>0.15276314001696434</v>
       </c>
       <c r="Q171">
+        <v>0</v>
+      </c>
+      <c r="R171">
         <v>4.4374903811625153</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>41699</v>
       </c>
@@ -37247,10 +37764,13 @@
         <v>0.27609420202175233</v>
       </c>
       <c r="Q172">
+        <v>0</v>
+      </c>
+      <c r="R172">
         <v>7.7280529514739289</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>41730</v>
       </c>
@@ -37314,10 +37834,13 @@
         <v>0.22450874999087075</v>
       </c>
       <c r="Q173">
+        <v>0</v>
+      </c>
+      <c r="R173">
         <v>3.9561053437892597</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>41760</v>
       </c>
@@ -37381,10 +37904,13 @@
         <v>0.2225465158701046</v>
       </c>
       <c r="Q174">
+        <v>0</v>
+      </c>
+      <c r="R174">
         <v>4.1911318080583264</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>41791</v>
       </c>
@@ -37448,10 +37974,13 @@
         <v>0.22241636634998613</v>
       </c>
       <c r="Q175">
+        <v>0</v>
+      </c>
+      <c r="R175">
         <v>2.234552332912906</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>41821</v>
       </c>
@@ -37515,10 +38044,13 @@
         <v>0.33669789082560503</v>
       </c>
       <c r="Q176">
+        <v>0</v>
+      </c>
+      <c r="R176">
         <v>-0.46823275699301925</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>41852</v>
       </c>
@@ -37582,10 +38114,13 @@
         <v>0.28959485679534741</v>
       </c>
       <c r="Q177">
+        <v>0</v>
+      </c>
+      <c r="R177">
         <v>-2.0046169989506626</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>41883</v>
       </c>
@@ -37649,10 +38184,13 @@
         <v>0.34290086916346213</v>
       </c>
       <c r="Q178">
+        <v>0</v>
+      </c>
+      <c r="R178">
         <v>0.90308258917310957</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>41913</v>
       </c>
@@ -37716,10 +38254,13 @@
         <v>0.35503852545702602</v>
       </c>
       <c r="Q179">
+        <v>0</v>
+      </c>
+      <c r="R179">
         <v>-3.014733375064659</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>41944</v>
       </c>
@@ -37783,10 +38324,13 @@
         <v>0.40790723515600369</v>
       </c>
       <c r="Q180">
+        <v>0</v>
+      </c>
+      <c r="R180">
         <v>-6.4793015292734317</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>41974</v>
       </c>
@@ -37850,10 +38394,13 @@
         <v>0.26809651474532015</v>
       </c>
       <c r="Q181">
+        <v>0</v>
+      </c>
+      <c r="R181">
         <v>-6.804121092013153</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>42005</v>
       </c>
@@ -37917,10 +38464,13 @@
         <v>0.24851000804630513</v>
       </c>
       <c r="Q182">
+        <v>0</v>
+      </c>
+      <c r="R182">
         <v>-5.6470708481679885</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>42036</v>
       </c>
@@ -37984,10 +38534,13 @@
         <v>0.29015669171650849</v>
       </c>
       <c r="Q183">
+        <v>0</v>
+      </c>
+      <c r="R183">
         <v>5.2116539085265643</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>42064</v>
       </c>
@@ -38051,10 +38604,13 @@
         <v>0.26240398882392213</v>
       </c>
       <c r="Q184">
+        <v>0</v>
+      </c>
+      <c r="R184">
         <v>7.1420659333168164</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>42095</v>
       </c>
@@ -38118,10 +38674,13 @@
         <v>0.1652950941263793</v>
       </c>
       <c r="Q185">
+        <v>0</v>
+      </c>
+      <c r="R185">
         <v>2.4394479055052227</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>42125</v>
       </c>
@@ -38185,10 +38744,13 @@
         <v>0.2281398317336481</v>
       </c>
       <c r="Q186">
+        <v>0</v>
+      </c>
+      <c r="R186">
         <v>6.1166784305936241</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>42156</v>
       </c>
@@ -38252,10 +38814,13 @@
         <v>0.2765220144593577</v>
       </c>
       <c r="Q187">
+        <v>0</v>
+      </c>
+      <c r="R187">
         <v>4.2034439982338387</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>42186</v>
       </c>
@@ -38319,10 +38884,13 @@
         <v>0.37153853440501877</v>
       </c>
       <c r="Q188">
+        <v>0</v>
+      </c>
+      <c r="R188">
         <v>8.0456591154758908E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>42217</v>
       </c>
@@ -38386,10 +38954,13 @@
         <v>0.34185046663637619</v>
       </c>
       <c r="Q189">
+        <v>0</v>
+      </c>
+      <c r="R189">
         <v>-1.6995315393833443</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>42248</v>
       </c>
@@ -38453,10 +39024,13 @@
         <v>0.43125670572825936</v>
       </c>
       <c r="Q190">
+        <v>0</v>
+      </c>
+      <c r="R190">
         <v>-1.8681078903641015</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>42278</v>
       </c>
@@ -38520,10 +39094,13 @@
         <v>0.38916984037793673</v>
       </c>
       <c r="Q191">
+        <v>0</v>
+      </c>
+      <c r="R191">
         <v>-0.53962050053583466</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>42309</v>
       </c>
@@ -38587,10 +39164,13 @@
         <v>0.30888511132302521</v>
       </c>
       <c r="Q192">
+        <v>0</v>
+      </c>
+      <c r="R192">
         <v>-2.5328164548977767</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>42339</v>
       </c>
@@ -38654,10 +39234,13 @@
         <v>0.30380060760121697</v>
       </c>
       <c r="Q193">
+        <v>0</v>
+      </c>
+      <c r="R193">
         <v>-4.1005157245424559</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>42370</v>
       </c>
@@ -38721,10 +39304,13 @@
         <v>0.2747215010782858</v>
       </c>
       <c r="Q194">
+        <v>0</v>
+      </c>
+      <c r="R194">
         <v>1.9837226508825256</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>42401</v>
       </c>
@@ -38788,10 +39374,13 @@
         <v>0.26472240106298806</v>
       </c>
       <c r="Q195">
+        <v>0</v>
+      </c>
+      <c r="R195">
         <v>0.98769184014583988</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>42430</v>
       </c>
@@ -38855,10 +39444,13 @@
         <v>0.2431885018290334</v>
       </c>
       <c r="Q196">
+        <v>0</v>
+      </c>
+      <c r="R196">
         <v>5.167200172071384</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>42461</v>
       </c>
@@ -38922,10 +39514,13 @@
         <v>0.23373959501038727</v>
       </c>
       <c r="Q197">
+        <v>0</v>
+      </c>
+      <c r="R197">
         <v>5.6892815749247845</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>42491</v>
       </c>
@@ -38989,10 +39584,13 @@
         <v>0.29268292682926489</v>
       </c>
       <c r="Q198">
+        <v>0</v>
+      </c>
+      <c r="R198">
         <v>4.8549491977381241</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>42522</v>
       </c>
@@ -39056,10 +39654,13 @@
         <v>0.29352350221667373</v>
       </c>
       <c r="Q199">
+        <v>0</v>
+      </c>
+      <c r="R199">
         <v>3.9412394007383984</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>42552</v>
       </c>
@@ -39123,10 +39724,13 @@
         <v>0.32443173753473664</v>
       </c>
       <c r="Q200">
+        <v>0</v>
+      </c>
+      <c r="R200">
         <v>-1.9417636856998968</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>42583</v>
       </c>
@@ -39190,10 +39794,13 @@
         <v>0.35504712627415214</v>
       </c>
       <c r="Q201">
+        <v>0</v>
+      </c>
+      <c r="R201">
         <v>1.1021161294612614</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>42614</v>
       </c>
@@ -39257,10 +39864,13 @@
         <v>0.35110568079592647</v>
       </c>
       <c r="Q202">
+        <v>0</v>
+      </c>
+      <c r="R202">
         <v>2.8847950375546891</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>42644</v>
       </c>
@@ -39324,10 +39934,13 @@
         <v>0.48099758497735107</v>
       </c>
       <c r="Q203">
+        <v>0</v>
+      </c>
+      <c r="R203">
         <v>1.4960982156171587</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>42675</v>
       </c>
@@ -39391,10 +40004,13 @@
         <v>0.39513981358189482</v>
       </c>
       <c r="Q204">
+        <v>0</v>
+      </c>
+      <c r="R204">
         <v>-1.8665530408019131</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>42705</v>
       </c>
@@ -39458,10 +40074,13 @@
         <v>0.38065301223196779</v>
       </c>
       <c r="Q205">
+        <v>0</v>
+      </c>
+      <c r="R205">
         <v>0.39278567078086934</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>42736</v>
       </c>
@@ -39525,10 +40144,13 @@
         <v>0.2417956298412707</v>
       </c>
       <c r="Q206">
+        <v>0</v>
+      </c>
+      <c r="R206">
         <v>6.9932734683058282</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>42767</v>
       </c>
@@ -39592,10 +40214,13 @@
         <v>0.24516669028264299</v>
       </c>
       <c r="Q207">
+        <v>0</v>
+      </c>
+      <c r="R207">
         <v>3.7753408636998671</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>42795</v>
       </c>
@@ -39659,10 +40284,13 @@
         <v>0.21596852184831652</v>
       </c>
       <c r="Q208">
+        <v>0</v>
+      </c>
+      <c r="R208">
         <v>0.97535744633676469</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>42826</v>
       </c>
@@ -39726,10 +40354,13 @@
         <v>0.19975858404292363</v>
       </c>
       <c r="Q209">
+        <v>0</v>
+      </c>
+      <c r="R209">
         <v>3.5586400383920322</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>42856</v>
       </c>
@@ -39793,10 +40424,13 @@
         <v>0.29527591275285658</v>
       </c>
       <c r="Q210">
+        <v>0</v>
+      </c>
+      <c r="R210">
         <v>1.0256661922756205</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>42887</v>
       </c>
@@ -39860,10 +40494,13 @@
         <v>0.30517757418099878</v>
       </c>
       <c r="Q211">
+        <v>0</v>
+      </c>
+      <c r="R211">
         <v>1.0885332178333536</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>42917</v>
       </c>
@@ -39927,10 +40564,13 @@
         <v>0.27951866820254867</v>
       </c>
       <c r="Q212">
+        <v>0</v>
+      </c>
+      <c r="R212">
         <v>-0.82790716662249531</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>42948</v>
       </c>
@@ -39994,10 +40634,13 @@
         <v>0.42378793729495551</v>
       </c>
       <c r="Q213">
+        <v>0</v>
+      </c>
+      <c r="R213">
         <v>3.5933427565302134</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>42979</v>
       </c>
@@ -40061,10 +40704,13 @@
         <v>0.25494460044138284</v>
       </c>
       <c r="Q214">
+        <v>0</v>
+      </c>
+      <c r="R214">
         <v>6.3538870718762279</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>43009</v>
       </c>
@@ -40128,10 +40774,13 @@
         <v>0.3973983781762877</v>
       </c>
       <c r="Q215">
+        <v>0</v>
+      </c>
+      <c r="R215">
         <v>-0.75845052447328998</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>43040</v>
       </c>
@@ -40195,10 +40844,13 @@
         <v>0.37527969412619533</v>
       </c>
       <c r="Q216">
+        <v>0</v>
+      </c>
+      <c r="R216">
         <v>2.9189623088992967E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>43070</v>
       </c>
@@ -40262,10 +40914,13 @@
         <v>0.39466530207566458</v>
       </c>
       <c r="Q217">
+        <v>0</v>
+      </c>
+      <c r="R217">
         <v>-0.70539873271474041</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>43101</v>
       </c>
@@ -40329,10 +40984,13 @@
         <v>0.28161476120088136</v>
       </c>
       <c r="Q218">
+        <v>0</v>
+      </c>
+      <c r="R218">
         <v>6.5372945433304146</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>43132</v>
       </c>
@@ -40396,10 +41054,13 @@
         <v>0.1553426433027866</v>
       </c>
       <c r="Q219">
+        <v>0</v>
+      </c>
+      <c r="R219">
         <v>5.4416279698387786</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>43160</v>
       </c>
@@ -40463,10 +41124,13 @@
         <v>0.19221192792369712</v>
       </c>
       <c r="Q220">
+        <v>0</v>
+      </c>
+      <c r="R220">
         <v>2.7133510849789175</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>43191</v>
       </c>
@@ -40530,10 +41194,13 @@
         <v>0.2785841593248119</v>
       </c>
       <c r="Q221">
+        <v>0</v>
+      </c>
+      <c r="R221">
         <v>4.7701098760187701</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>43221</v>
       </c>
@@ -40597,10 +41264,13 @@
         <v>0.22950912827572426</v>
       </c>
       <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
         <v>4.9907003105218282</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>43252</v>
       </c>
@@ -40664,10 +41334,13 @@
         <v>0.26079561560993242</v>
       </c>
       <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
         <v>1.9126508418526025</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>43282</v>
       </c>
@@ -40731,10 +41404,13 @@
         <v>0.3245182490465558</v>
       </c>
       <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
         <v>8.0955914742290691E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>43313</v>
       </c>
@@ -40798,10 +41474,13 @@
         <v>0.40707560020166256</v>
       </c>
       <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
         <v>0.66665079402864869</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>43344</v>
       </c>
@@ -40865,10 +41544,13 @@
         <v>0.27506541379880461</v>
       </c>
       <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
         <v>1.394430211068221</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>43374</v>
       </c>
@@ -40932,10 +41614,13 @@
         <v>0.34055602379848116</v>
       </c>
       <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
         <v>2.1201161468711156</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>43405</v>
       </c>
@@ -40999,10 +41684,13 @@
         <v>0.4153390282306656</v>
       </c>
       <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
         <v>-4.0192182217212409</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>43435</v>
       </c>
@@ -41066,10 +41754,13 @@
         <v>0.26144557487158604</v>
       </c>
       <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
         <v>-3.8327553781572945</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>43466</v>
       </c>
@@ -41133,10 +41824,13 @@
         <v>0.24075242830533758</v>
       </c>
       <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
         <v>2.28791599829633</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>43497</v>
       </c>
@@ -41200,10 +41894,13 @@
         <v>0.23157461524523235</v>
       </c>
       <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
         <v>5.0724637681160436</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>43525</v>
       </c>
@@ -41267,10 +41964,13 @@
         <v>0.356058354348532</v>
       </c>
       <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
         <v>6.769630028167172</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>43556</v>
       </c>
@@ -41334,10 +42034,13 @@
         <v>0.35571107101092797</v>
       </c>
       <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
         <v>6.354001935468661</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>43586</v>
       </c>
@@ -41401,10 +42104,13 @@
         <v>0.1992831890178319</v>
       </c>
       <c r="Q234">
+        <v>0</v>
+      </c>
+      <c r="R234">
         <v>2.554510307261177</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>43617</v>
       </c>
@@ -41468,10 +42174,13 @@
         <v>0.39929190211730914</v>
       </c>
       <c r="Q235">
+        <v>0</v>
+      </c>
+      <c r="R235">
         <v>0.23897661777792853</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>43647</v>
       </c>
@@ -41535,10 +42244,13 @@
         <v>0.28943166146475818</v>
       </c>
       <c r="Q236">
+        <v>0</v>
+      </c>
+      <c r="R236">
         <v>2.0051299469439527</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>43678</v>
       </c>
@@ -41602,10 +42314,13 @@
         <v>0.31151520634488583</v>
       </c>
       <c r="Q237">
+        <v>0</v>
+      </c>
+      <c r="R237">
         <v>-6.0801883299517009E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>43709</v>
       </c>
@@ -41669,10 +42384,13 @@
         <v>0.35955002134453262</v>
       </c>
       <c r="Q238">
+        <v>0</v>
+      </c>
+      <c r="R238">
         <v>0.94013829231606971</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>43739</v>
       </c>
@@ -41736,10 +42454,13 @@
         <v>0.25341936411510024</v>
       </c>
       <c r="Q239">
+        <v>0</v>
+      </c>
+      <c r="R239">
         <v>2.7434286626758433</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>43770</v>
       </c>
@@ -41803,10 +42524,13 @@
         <v>0.34032508664993721</v>
       </c>
       <c r="Q240">
+        <v>0</v>
+      </c>
+      <c r="R240">
         <v>-0.64349164160302541</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>43800</v>
       </c>
@@ -41870,10 +42594,13 @@
         <v>0.28884607482005792</v>
       </c>
       <c r="Q241">
+        <v>0</v>
+      </c>
+      <c r="R241">
         <v>-1.0917234300645575</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>43831</v>
       </c>
@@ -41937,10 +42664,13 @@
         <v>0.30761099679621406</v>
       </c>
       <c r="Q242">
+        <v>0</v>
+      </c>
+      <c r="R242">
         <v>4.6557239253777301</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>43862</v>
       </c>
@@ -42004,10 +42734,13 @@
         <v>0.23414489750610432</v>
       </c>
       <c r="Q243">
+        <v>0</v>
+      </c>
+      <c r="R243">
         <v>3.2887417577944511</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>43891</v>
       </c>
@@ -42071,10 +42804,13 @@
         <v>0.26667375434120655</v>
       </c>
       <c r="Q244">
+        <v>0</v>
+      </c>
+      <c r="R244">
         <v>-2.611741238141573</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>43922</v>
       </c>
@@ -42138,10 +42874,13 @@
         <v>0.1814331451258944</v>
       </c>
       <c r="Q245">
+        <v>0</v>
+      </c>
+      <c r="R245">
         <v>-8.0243302403967185</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>43952</v>
       </c>
@@ -42205,10 +42944,13 @@
         <v>0.19874461610830635</v>
       </c>
       <c r="Q246">
+        <v>0</v>
+      </c>
+      <c r="R246">
         <v>2.3401940020806439E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>43983</v>
       </c>
@@ -42272,10 +43014,13 @@
         <v>0.14172077779179781</v>
       </c>
       <c r="Q247">
+        <v>0</v>
+      </c>
+      <c r="R247">
         <v>6.5664563133303595</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>44013</v>
       </c>
@@ -42339,10 +43084,13 @@
         <v>0.19220964915879152</v>
       </c>
       <c r="Q248">
+        <v>0</v>
+      </c>
+      <c r="R248">
         <v>6.0698922020037784</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>44044</v>
       </c>
@@ -42406,10 +43154,13 @@
         <v>0.14446556514111075</v>
       </c>
       <c r="Q249">
+        <v>0</v>
+      </c>
+      <c r="R249">
         <v>3.7838526288976446</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>44075</v>
       </c>
@@ -42473,10 +43224,13 @@
         <v>0.13608064384249924</v>
       </c>
       <c r="Q250">
+        <v>0</v>
+      </c>
+      <c r="R250">
         <v>1.6712963319199119</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>44105</v>
       </c>
@@ -42540,10 +43294,13 @@
         <v>0.20559330436557233</v>
       </c>
       <c r="Q251">
+        <v>0</v>
+      </c>
+      <c r="R251">
         <v>0.49792531120333838</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>44136</v>
       </c>
@@ -42607,10 +43364,13 @@
         <v>0.12339391470103987</v>
       </c>
       <c r="Q252">
+        <v>0</v>
+      </c>
+      <c r="R252">
         <v>-0.73275266141293072</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>44166</v>
       </c>
@@ -42674,10 +43434,13 @@
         <v>0.12091652399873179</v>
       </c>
       <c r="Q253">
+        <v>0</v>
+      </c>
+      <c r="R253">
         <v>1.1297741604510085</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>44197</v>
       </c>
@@ -42741,10 +43504,13 @@
         <v>8.7965046232453381E-2</v>
       </c>
       <c r="Q254">
+        <v>0</v>
+      </c>
+      <c r="R254">
         <v>5.1045401844330138</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>44228</v>
       </c>
@@ -42808,10 +43574,13 @@
         <v>0.1403883303650785</v>
       </c>
       <c r="Q255">
+        <v>0</v>
+      </c>
+      <c r="R255">
         <v>6.5692593527078298</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>44256</v>
       </c>
@@ -42875,10 +43644,13 @@
         <v>0.13758465076669868</v>
       </c>
       <c r="Q256">
+        <v>0</v>
+      </c>
+      <c r="R256">
         <v>8.499927760499439</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>44287</v>
       </c>
@@ -42942,10 +43714,13 @@
         <v>0.15908966003986247</v>
       </c>
       <c r="Q257">
+        <v>0</v>
+      </c>
+      <c r="R257">
         <v>9.8626909848720619</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>44317</v>
       </c>
@@ -43009,10 +43784,13 @@
         <v>0.21630706940020958</v>
       </c>
       <c r="Q258">
+        <v>0</v>
+      </c>
+      <c r="R258">
         <v>9.6205261857153364</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>44348</v>
       </c>
@@ -43076,10 +43854,13 @@
         <v>0.2354358300481843</v>
       </c>
       <c r="Q259">
+        <v>0</v>
+      </c>
+      <c r="R259">
         <v>11.14879548282858</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>44378</v>
       </c>
@@ -43143,10 +43924,13 @@
         <v>0.18284636592846773</v>
       </c>
       <c r="Q260">
+        <v>0</v>
+      </c>
+      <c r="R260">
         <v>5.7726282315527326</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>44409</v>
       </c>
@@ -43210,10 +43994,13 @@
         <v>0.35612923961671927</v>
       </c>
       <c r="Q261">
+        <v>0</v>
+      </c>
+      <c r="R261">
         <v>2.4790936363337606</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>44440</v>
       </c>
@@ -43277,10 +44064,13 @@
         <v>0.44179462983615453</v>
       </c>
       <c r="Q262">
+        <v>0</v>
+      </c>
+      <c r="R262">
         <v>3.2591650308699291</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>44470</v>
       </c>
@@ -43344,10 +44134,13 @@
         <v>0.46604318799732408</v>
       </c>
       <c r="Q263">
+        <v>0</v>
+      </c>
+      <c r="R263">
         <v>9.9697422624038339</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>44501</v>
       </c>
@@ -43411,10 +44204,13 @@
         <v>0.46303118234474422</v>
       </c>
       <c r="Q264">
+        <v>0</v>
+      </c>
+      <c r="R264">
         <v>5.8961130052170425</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>44531</v>
       </c>
@@ -43478,10 +44274,13 @@
         <v>0.39630379718270953</v>
       </c>
       <c r="Q265">
+        <v>0</v>
+      </c>
+      <c r="R265">
         <v>3.6870205937803124</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>44562</v>
       </c>
@@ -43545,10 +44344,13 @@
         <v>0.5074017155010494</v>
       </c>
       <c r="Q266">
+        <v>0</v>
+      </c>
+      <c r="R266">
         <v>10.097488540254389</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>44593</v>
       </c>
@@ -43612,10 +44414,13 @@
         <v>0.52832108504291875</v>
       </c>
       <c r="Q267">
+        <v>0</v>
+      </c>
+      <c r="R267">
         <v>10.960775107772347</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>44621</v>
       </c>
@@ -43679,10 +44484,13 @@
         <v>0.40486392845921393</v>
       </c>
       <c r="Q268">
+        <v>0</v>
+      </c>
+      <c r="R268">
         <v>16.021655458275223</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>44652</v>
       </c>
@@ -43746,10 +44554,13 @@
         <v>0.51733258004392191</v>
       </c>
       <c r="Q269">
+        <v>0</v>
+      </c>
+      <c r="R269">
         <v>6.6990372307861916</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>44682</v>
       </c>
@@ -43813,10 +44624,13 @@
         <v>0.59649925196513121</v>
       </c>
       <c r="Q270">
+        <v>0</v>
+      </c>
+      <c r="R270">
         <v>13.228228799518568</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>44713</v>
       </c>
@@ -43880,10 +44694,13 @@
         <v>0.76989230819795229</v>
       </c>
       <c r="Q271">
+        <v>0</v>
+      </c>
+      <c r="R271">
         <v>16.483290910583733</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>44743</v>
       </c>
@@ -43947,10 +44764,13 @@
         <v>0.68519026872177302</v>
       </c>
       <c r="Q272">
+        <v>0</v>
+      </c>
+      <c r="R272">
         <v>-0.14174296600518307</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>44774</v>
       </c>
@@ -44014,10 +44834,13 @@
         <v>0.76528959530083485</v>
       </c>
       <c r="Q273">
+        <v>0</v>
+      </c>
+      <c r="R273">
         <v>-0.42527913162058972</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>44805</v>
       </c>
@@ -44081,10 +44904,13 @@
         <v>0.88029725436197226</v>
       </c>
       <c r="Q274">
+        <v>0</v>
+      </c>
+      <c r="R274">
         <v>2.5809414156011243</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>44835</v>
       </c>
@@ -44148,10 +44974,13 @@
         <v>0.761347853912553</v>
       </c>
       <c r="Q275">
+        <v>0</v>
+      </c>
+      <c r="R275">
         <v>4.8677933209347772</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>44866</v>
       </c>
@@ -44215,10 +45044,13 @@
         <v>0.82385435224913639</v>
       </c>
       <c r="Q276">
+        <v>0</v>
+      </c>
+      <c r="R276">
         <v>-1.2120317302658459</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>44896</v>
       </c>
@@ -44282,10 +45114,13 @@
         <v>0.80692802735242619</v>
       </c>
       <c r="Q277">
+        <v>0</v>
+      </c>
+      <c r="R277">
         <v>-3.6841097574492867</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>44927</v>
       </c>
@@ -44349,10 +45184,13 @@
         <v>0.70608247395948476</v>
       </c>
       <c r="Q278">
+        <v>0</v>
+      </c>
+      <c r="R278">
         <v>9.5944366014480895</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>44958</v>
       </c>
@@ -44416,10 +45254,13 @@
         <v>0.71297621867693994</v>
       </c>
       <c r="Q279">
+        <v>0</v>
+      </c>
+      <c r="R279">
         <v>6.6985326068788673</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>44986</v>
       </c>
@@ -44483,10 +45324,13 @@
         <v>0.45226657394648101</v>
       </c>
       <c r="Q280">
+        <v>0</v>
+      </c>
+      <c r="R280">
         <v>3.9728759473475783</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>45017</v>
       </c>
@@ -44546,6 +45390,9 @@
         <v>0.50596828790308201</v>
       </c>
       <c r="Q281">
+        <v>0</v>
+      </c>
+      <c r="R281">
         <v>6.0708464199100973</v>
       </c>
     </row>

--- a/Data/EconomicData/ALLECONDATA.xlsx
+++ b/Data/EconomicData/ALLECONDATA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\CodingProjectsStuff\2023SummerResearch-Inflation\COVID-Inflation\Data\EconomicData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D823F5A-12C0-478F-B9E8-08C91EDF64C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EF4144-DF1F-4D2C-8722-A0E1A7806C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>RentalPriceAvg%Change</t>
+  </si>
+  <si>
+    <t>DCOILBRENTEU%Change</t>
   </si>
 </sst>
 </file>
@@ -170,7 +173,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
@@ -6000,7 +6003,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$1</c:f>
+              <c:f>Sheet1!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6023,7 +6026,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$122:$P$544</c:f>
+              <c:f>Sheet1!$Q$122:$Q$544</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="423"/>
@@ -25014,11 +25017,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P402"/>
+  <dimension ref="A1:Q402"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L6" sqref="L6"/>
+      <selection pane="topRight" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25035,11 +25038,11 @@
     <col min="12" max="12" width="14.33203125" customWidth="1"/>
     <col min="13" max="13" width="15.33203125" customWidth="1"/>
     <col min="14" max="14" width="16.33203125" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.88671875" customWidth="1"/>
+    <col min="15" max="16" width="12.33203125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -25086,10 +25089,13 @@
         <v>2</v>
       </c>
       <c r="P1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>32874</v>
       </c>
@@ -25108,11 +25114,12 @@
       <c r="O2" s="8">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="8"/>
+      <c r="Q2" s="5">
         <v>12.371134020618666</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>32905</v>
       </c>
@@ -25156,11 +25163,14 @@
       <c r="O3" s="8">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="8">
+        <v>-6.7679770714805016</v>
+      </c>
+      <c r="Q3" s="5">
         <v>5.6514913657770265</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>32933</v>
       </c>
@@ -25204,11 +25214,14 @@
       <c r="O4" s="8">
         <v>3.7</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="8">
+        <v>-7.1982601394366004</v>
+      </c>
+      <c r="Q4" s="5">
         <v>6.5624999999998934</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>32964</v>
       </c>
@@ -25252,11 +25265,14 @@
       <c r="O5" s="8">
         <v>3.6</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="8">
+        <v>-10.074962448145518</v>
+      </c>
+      <c r="Q5" s="5">
         <v>1.8648018648020239</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>32994</v>
       </c>
@@ -25300,11 +25316,14 @@
       <c r="O6" s="8">
         <v>3.4</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="8">
+        <v>-1.2094476909804004</v>
+      </c>
+      <c r="Q6" s="5">
         <v>2.7928626842511988</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>33025</v>
       </c>
@@ -25348,11 +25367,14 @@
       <c r="O7" s="8">
         <v>3.8</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="8">
+        <v>-7.5300708518701773</v>
+      </c>
+      <c r="Q7" s="5">
         <v>6.5015479876162576</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>33055</v>
       </c>
@@ -25396,11 +25418,14 @@
       <c r="O8" s="8">
         <v>3.4</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="8">
+        <v>13.666743092972647</v>
+      </c>
+      <c r="Q8" s="5">
         <v>4.6189376443418002</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>33086</v>
       </c>
@@ -25444,11 +25469,14 @@
       <c r="O9" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="8">
+        <v>58.234302842224984</v>
+      </c>
+      <c r="Q9" s="5">
         <v>11.042944785275969</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>33117</v>
       </c>
@@ -25492,11 +25520,14 @@
       <c r="O10" s="8">
         <v>4.7</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="8">
+        <v>28.459150196047034</v>
+      </c>
+      <c r="Q10" s="5">
         <v>10.030395136778065</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>33147</v>
       </c>
@@ -25540,11 +25571,14 @@
       <c r="O11" s="8">
         <v>4.8</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="8">
+        <v>3.2196014087858278</v>
+      </c>
+      <c r="Q11" s="5">
         <v>7.234363225320374</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>33178</v>
       </c>
@@ -25588,11 +25622,14 @@
       <c r="O12" s="8">
         <v>4.7</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="8">
+        <v>-8.2041142365576043</v>
+      </c>
+      <c r="Q12" s="5">
         <v>2.6966292134832481</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>33208</v>
       </c>
@@ -25636,11 +25673,14 @@
       <c r="O13" s="8">
         <v>4.7</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="8">
+        <v>-14.579618618217641</v>
+      </c>
+      <c r="Q13" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>33239</v>
       </c>
@@ -25683,11 +25723,14 @@
       <c r="O14" s="8">
         <v>3.9</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="8">
+        <v>-15.831666411344766</v>
+      </c>
+      <c r="Q14" s="5">
         <v>7.1748878923765274</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>33270</v>
       </c>
@@ -25734,16 +25777,19 @@
       <c r="O15" s="8">
         <v>3.4</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="8">
+        <v>-17.827398913699462</v>
+      </c>
+      <c r="Q15" s="5">
         <v>1.7830609212482949</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>33298</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" ref="B16:C79" ca="1" si="0">(($B16-$B15)/$B15)*100</f>
+        <f t="shared" ref="B16:B79" ca="1" si="0">(($B16-$B15)/$B15)*100</f>
         <v>0.28887339376432541</v>
       </c>
       <c r="C16">
@@ -25785,11 +25831,14 @@
       <c r="O16" s="8">
         <v>3.3</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" s="8">
+        <v>-2.5852150852150881</v>
+      </c>
+      <c r="Q16" s="5">
         <v>1.7804154302669608</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>33329</v>
       </c>
@@ -25836,11 +25885,14 @@
       <c r="O17" s="8">
         <v>3.2</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17" s="8">
+        <v>0.78318528712622992</v>
+      </c>
+      <c r="Q17" s="5">
         <v>1.7777777777776769</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>33359</v>
       </c>
@@ -25887,11 +25939,14 @@
       <c r="O18" s="8">
         <v>3.1</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P18" s="8">
+        <v>-4.5337081198691329E-2</v>
+      </c>
+      <c r="Q18" s="5">
         <v>3.5502958579882167</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>33390</v>
       </c>
@@ -25938,11 +25993,14 @@
       <c r="O19" s="8">
         <v>3.3</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19" s="8">
+        <v>-5.2359731482741578</v>
+      </c>
+      <c r="Q19" s="5">
         <v>3.5398230088496083</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>33420</v>
       </c>
@@ -25989,11 +26047,14 @@
       <c r="O20" s="8">
         <v>3.1</v>
       </c>
-      <c r="P20" s="5">
+      <c r="P20" s="8">
+        <v>6.7673401499332915</v>
+      </c>
+      <c r="Q20" s="5">
         <v>1.764705882352841</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>33451</v>
       </c>
@@ -26040,11 +26101,14 @@
       <c r="O21" s="8">
         <v>3.2</v>
       </c>
-      <c r="P21" s="5">
+      <c r="P21" s="8">
+        <v>1.9372665529615103</v>
+      </c>
+      <c r="Q21" s="5">
         <v>3.5242290748899179</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>33482</v>
       </c>
@@ -26091,11 +26155,14 @@
       <c r="O22" s="8">
         <v>3</v>
       </c>
-      <c r="P22" s="5">
+      <c r="P22" s="8">
+        <v>3.6877941981390374</v>
+      </c>
+      <c r="Q22" s="5">
         <v>5.2708638360175195</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>33512</v>
       </c>
@@ -26142,11 +26209,14 @@
       <c r="O23" s="8">
         <v>3.2</v>
       </c>
-      <c r="P23" s="5">
+      <c r="P23" s="8">
+        <v>8.3123115359679876</v>
+      </c>
+      <c r="Q23" s="5">
         <v>1.7492711370263883</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>33543</v>
       </c>
@@ -26193,11 +26263,14 @@
       <c r="O24" s="8">
         <v>2.9</v>
       </c>
-      <c r="P24" s="5">
+      <c r="P24" s="8">
+        <v>-4.9424084941177782</v>
+      </c>
+      <c r="Q24" s="5">
         <v>3.4934497816594385</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>33573</v>
       </c>
@@ -26244,11 +26317,14 @@
       <c r="O25" s="8">
         <v>2.7</v>
       </c>
-      <c r="P25" s="5">
+      <c r="P25" s="8">
+        <v>-12.91560023625534</v>
+      </c>
+      <c r="Q25" s="5">
         <v>0.87082728592157599</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>33604</v>
       </c>
@@ -26295,11 +26371,14 @@
       <c r="O26" s="8">
         <v>2.7</v>
       </c>
-      <c r="P26" s="5">
+      <c r="P26" s="8">
+        <v>-1.2872214272428972</v>
+      </c>
+      <c r="Q26" s="5">
         <v>1.7403915881072252</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>33635</v>
       </c>
@@ -26346,11 +26425,14 @@
       <c r="O27" s="8">
         <v>2.6</v>
       </c>
-      <c r="P27" s="5">
+      <c r="P27" s="8">
+        <v>-0.50784713070567722</v>
+      </c>
+      <c r="Q27" s="5">
         <v>4.344677769732078</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>33664</v>
       </c>
@@ -26397,11 +26479,14 @@
       <c r="O28" s="8">
         <v>2.6</v>
       </c>
-      <c r="P28" s="5">
+      <c r="P28" s="8">
+        <v>-2.3407699841632401</v>
+      </c>
+      <c r="Q28" s="5">
         <v>6.0606060606062089</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>33695</v>
       </c>
@@ -26448,11 +26533,14 @@
       <c r="O29" s="8">
         <v>3</v>
       </c>
-      <c r="P29" s="5">
+      <c r="P29" s="8">
+        <v>7.3141177683820127</v>
+      </c>
+      <c r="Q29" s="5">
         <v>1.7229002153624289</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>33725</v>
       </c>
@@ -26499,11 +26587,14 @@
       <c r="O30" s="8">
         <v>2.9</v>
       </c>
-      <c r="P30" s="5">
+      <c r="P30" s="8">
+        <v>5.0387530387529909</v>
+      </c>
+      <c r="Q30" s="5">
         <v>1.720430107526784</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>33756</v>
       </c>
@@ -26550,11 +26641,14 @@
       <c r="O31" s="8">
         <v>3.1</v>
       </c>
-      <c r="P31" s="5">
+      <c r="P31" s="8">
+        <v>6.4626376379102206</v>
+      </c>
+      <c r="Q31" s="5">
         <v>4.2949176807444527</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>33786</v>
       </c>
@@ -26601,11 +26695,14 @@
       <c r="O32" s="8">
         <v>2.7</v>
       </c>
-      <c r="P32" s="5">
+      <c r="P32" s="8">
+        <v>-4.3560457461395874</v>
+      </c>
+      <c r="Q32" s="5">
         <v>2.5677603423681434</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>33817</v>
       </c>
@@ -26652,11 +26749,14 @@
       <c r="O33" s="8">
         <v>2.8</v>
       </c>
-      <c r="P33" s="5">
+      <c r="P33" s="8">
+        <v>-2.4630047962808059</v>
+      </c>
+      <c r="Q33" s="5">
         <v>3.4163701067616148</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>33848</v>
       </c>
@@ -26703,11 +26803,14 @@
       <c r="O34" s="8">
         <v>3</v>
       </c>
-      <c r="P34" s="5">
+      <c r="P34" s="8">
+        <v>2.6948130277442539</v>
+      </c>
+      <c r="Q34" s="5">
         <v>3.406671398154768</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>33878</v>
       </c>
@@ -26754,11 +26857,14 @@
       <c r="O35" s="8">
         <v>2.8</v>
       </c>
-      <c r="P35" s="5">
+      <c r="P35" s="8">
+        <v>-4.0364174552628737E-2</v>
+      </c>
+      <c r="Q35" s="5">
         <v>4.2462845010615702</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>33909</v>
       </c>
@@ -26805,11 +26911,14 @@
       <c r="O36" s="8">
         <v>2.9</v>
       </c>
-      <c r="P36" s="5">
+      <c r="P36" s="8">
+        <v>-5.1699825658906553</v>
+      </c>
+      <c r="Q36" s="5">
         <v>1.6925246826515257</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>33939</v>
       </c>
@@ -26856,11 +26965,14 @@
       <c r="O37" s="8">
         <v>2.8</v>
       </c>
-      <c r="P37" s="5">
+      <c r="P37" s="8">
+        <v>-5.529982220785552</v>
+      </c>
+      <c r="Q37" s="5">
         <v>-0.84507042253516318</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>33970</v>
       </c>
@@ -26907,11 +27019,14 @@
       <c r="O38" s="8">
         <v>2.9</v>
       </c>
-      <c r="P38" s="5">
+      <c r="P38" s="8">
+        <v>-4.09681897142673</v>
+      </c>
+      <c r="Q38" s="5">
         <v>5.9196617336151256</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>34001</v>
       </c>
@@ -26958,11 +27073,14 @@
       <c r="O39" s="8">
         <v>3.2</v>
       </c>
-      <c r="P39" s="5">
+      <c r="P39" s="8">
+        <v>6.0598517383811581</v>
+      </c>
+      <c r="Q39" s="5">
         <v>4.20757363253857</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>34029</v>
       </c>
@@ -27009,11 +27127,14 @@
       <c r="O40" s="8">
         <v>3.1</v>
       </c>
-      <c r="P40" s="5">
+      <c r="P40" s="8">
+        <v>1.7452060407536645</v>
+      </c>
+      <c r="Q40" s="5">
         <v>4.1928721174004195</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>34060</v>
       </c>
@@ -27060,11 +27181,14 @@
       <c r="O41" s="8">
         <v>3</v>
       </c>
-      <c r="P41" s="5">
+      <c r="P41" s="8">
+        <v>-0.65931499412960204</v>
+      </c>
+      <c r="Q41" s="5">
         <v>3.3426183844011623</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>34090</v>
       </c>
@@ -27111,11 +27235,14 @@
       <c r="O42" s="8">
         <v>2.9</v>
       </c>
-      <c r="P42" s="5">
+      <c r="P42" s="8">
+        <v>-0.75496865412832481</v>
+      </c>
+      <c r="Q42" s="5">
         <v>1.6666666666665721</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>34121</v>
       </c>
@@ -27162,11 +27289,14 @@
       <c r="O43" s="8">
         <v>3.5</v>
       </c>
-      <c r="P43" s="5">
+      <c r="P43" s="8">
+        <v>-4.6853488475374432</v>
+      </c>
+      <c r="Q43" s="5">
         <v>1.6643550624134571</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>34151</v>
       </c>
@@ -27213,11 +27343,14 @@
       <c r="O44" s="8">
         <v>3</v>
       </c>
-      <c r="P44" s="5">
+      <c r="P44" s="8">
+        <v>-4.9696158203727991</v>
+      </c>
+      <c r="Q44" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>34182</v>
       </c>
@@ -27264,11 +27397,14 @@
       <c r="O45" s="8">
         <v>3.2</v>
       </c>
-      <c r="P45" s="5">
+      <c r="P45" s="8">
+        <v>-0.37663252587656859</v>
+      </c>
+      <c r="Q45" s="5">
         <v>3.3240997229917371</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>34213</v>
       </c>
@@ -27315,11 +27451,14 @@
       <c r="O46" s="8">
         <v>3</v>
       </c>
-      <c r="P46" s="5">
+      <c r="P46" s="8">
+        <v>-4.1912584654717682</v>
+      </c>
+      <c r="Q46" s="5">
         <v>2.4861878453037258</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>34243</v>
       </c>
@@ -27366,11 +27505,14 @@
       <c r="O47" s="8">
         <v>3.3</v>
       </c>
-      <c r="P47" s="5">
+      <c r="P47" s="8">
+        <v>3.7150589526675533</v>
+      </c>
+      <c r="Q47" s="5">
         <v>4.9620951068228338</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>34274</v>
       </c>
@@ -27417,11 +27559,14 @@
       <c r="O48" s="8">
         <v>2.8</v>
       </c>
-      <c r="P48" s="5">
+      <c r="P48" s="8">
+        <v>-8.4923907886573353</v>
+      </c>
+      <c r="Q48" s="5">
         <v>0.82361015785880098</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>34304</v>
       </c>
@@ -27468,11 +27613,14 @@
       <c r="O49" s="8">
         <v>3</v>
       </c>
-      <c r="P49" s="5">
+      <c r="P49" s="8">
+        <v>-9.8754642779113482</v>
+      </c>
+      <c r="Q49" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>34335</v>
       </c>
@@ -27519,11 +27667,14 @@
       <c r="O50" s="8">
         <v>2.8</v>
       </c>
-      <c r="P50" s="5">
+      <c r="P50" s="8">
+        <v>3.9641723356009426</v>
+      </c>
+      <c r="Q50" s="5">
         <v>3.29218106995866</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>34366</v>
       </c>
@@ -27570,11 +27721,14 @@
       <c r="O51" s="8">
         <v>2.8</v>
       </c>
-      <c r="P51" s="5">
+      <c r="P51" s="8">
+        <v>-3.0661181900270971</v>
+      </c>
+      <c r="Q51" s="5">
         <v>4.1039671682626544</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>34394</v>
       </c>
@@ -27621,11 +27775,14 @@
       <c r="O52" s="8">
         <v>3</v>
       </c>
-      <c r="P52" s="5">
+      <c r="P52" s="8">
+        <v>0.14931673418468214</v>
+      </c>
+      <c r="Q52" s="5">
         <v>4.0899795501022496</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>34425</v>
       </c>
@@ -27672,11 +27829,14 @@
       <c r="O53" s="8">
         <v>3</v>
       </c>
-      <c r="P53" s="5">
+      <c r="P53" s="8">
+        <v>8.8279171759292634</v>
+      </c>
+      <c r="Q53" s="5">
         <v>1.6304347826088348</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>34455</v>
       </c>
@@ -27723,11 +27883,14 @@
       <c r="O54" s="8">
         <v>3.1</v>
       </c>
-      <c r="P54" s="5">
+      <c r="P54" s="8">
+        <v>7.3266856600190167</v>
+      </c>
+      <c r="Q54" s="5">
         <v>0.81411126187240979</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>34486</v>
       </c>
@@ -27774,11 +27937,14 @@
       <c r="O55" s="8">
         <v>2.7</v>
       </c>
-      <c r="P55" s="5">
+      <c r="P55" s="8">
+        <v>3.8289366254680761</v>
+      </c>
+      <c r="Q55" s="5">
         <v>4.0677966101694913</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <v>34516</v>
       </c>
@@ -27825,11 +27991,14 @@
       <c r="O56" s="8">
         <v>2.9</v>
       </c>
-      <c r="P56" s="5">
+      <c r="P56" s="8">
+        <v>4.9891601750383021</v>
+      </c>
+      <c r="Q56" s="5">
         <v>3.2432432432432892</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>34547</v>
       </c>
@@ -27876,11 +28045,14 @@
       <c r="O57" s="8">
         <v>3.1</v>
       </c>
-      <c r="P57" s="5">
+      <c r="P57" s="8">
+        <v>-4.2735957706365308</v>
+      </c>
+      <c r="Q57" s="5">
         <v>4.8517520215632954</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>34578</v>
       </c>
@@ -27927,11 +28099,14 @@
       <c r="O58" s="8">
         <v>3.4</v>
       </c>
-      <c r="P58" s="5">
+      <c r="P58" s="8">
+        <v>-5.653049110944826</v>
+      </c>
+      <c r="Q58" s="5">
         <v>3.2214765100671592</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>34608</v>
       </c>
@@ -27978,11 +28153,14 @@
       <c r="O59" s="8">
         <v>3</v>
       </c>
-      <c r="P59" s="5">
+      <c r="P59" s="8">
+        <v>3.7463113587681089</v>
+      </c>
+      <c r="Q59" s="5">
         <v>0.80321285140557686</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>34639</v>
       </c>
@@ -28029,11 +28207,14 @@
       <c r="O60" s="8">
         <v>3.2</v>
       </c>
-      <c r="P60" s="5">
+      <c r="P60" s="8">
+        <v>4.2502559525372332</v>
+      </c>
+      <c r="Q60" s="5">
         <v>1.6053511705684709</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>34669</v>
       </c>
@@ -28080,11 +28261,14 @@
       <c r="O61" s="8">
         <v>3</v>
       </c>
-      <c r="P61" s="5">
+      <c r="P61" s="8">
+        <v>-7.5275640517173033</v>
+      </c>
+      <c r="Q61" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <v>34700</v>
       </c>
@@ -28131,11 +28315,14 @@
       <c r="O62" s="8">
         <v>3</v>
       </c>
-      <c r="P62" s="5">
+      <c r="P62" s="8">
+        <v>4.0258477726310886</v>
+      </c>
+      <c r="Q62" s="5">
         <v>4.8096192384771363</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>34731</v>
       </c>
@@ -28182,11 +28369,14 @@
       <c r="O63" s="8">
         <v>3</v>
       </c>
-      <c r="P63" s="5">
+      <c r="P63" s="8">
+        <v>3.4904623165301398</v>
+      </c>
+      <c r="Q63" s="5">
         <v>4.790419161676601</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>34759</v>
       </c>
@@ -28233,11 +28423,14 @@
       <c r="O64" s="8">
         <v>3.2</v>
       </c>
-      <c r="P64" s="5">
+      <c r="P64" s="8">
+        <v>-0.63091682999543519</v>
+      </c>
+      <c r="Q64" s="5">
         <v>3.9761431411530808</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>34790</v>
       </c>
@@ -28284,11 +28477,14 @@
       <c r="O65" s="8">
         <v>3.3</v>
       </c>
-      <c r="P65" s="5">
+      <c r="P65" s="8">
+        <v>9.2610251821551977</v>
+      </c>
+      <c r="Q65" s="5">
         <v>3.9630118890356663</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>34820</v>
       </c>
@@ -28335,11 +28531,14 @@
       <c r="O66" s="8">
         <v>3</v>
       </c>
-      <c r="P66" s="5">
+      <c r="P66" s="8">
+        <v>-1.3698758348942084</v>
+      </c>
+      <c r="Q66" s="5">
         <v>2.3699802501644474</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>34851</v>
       </c>
@@ -28386,11 +28585,14 @@
       <c r="O67" s="8">
         <v>2.9</v>
       </c>
-      <c r="P67" s="5">
+      <c r="P67" s="8">
+        <v>-5.5340844390000061</v>
+      </c>
+      <c r="Q67" s="5">
         <v>2.3653088042050832</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <v>34881</v>
       </c>
@@ -28437,11 +28639,14 @@
       <c r="O68" s="8">
         <v>2.9</v>
       </c>
-      <c r="P68" s="5">
+      <c r="P68" s="8">
+        <v>-8.4241005791100338</v>
+      </c>
+      <c r="Q68" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <v>34912</v>
       </c>
@@ -28488,11 +28693,14 @@
       <c r="O69" s="8">
         <v>2.9</v>
       </c>
-      <c r="P69" s="5">
+      <c r="P69" s="8">
+        <v>1.541601698700116</v>
+      </c>
+      <c r="Q69" s="5">
         <v>3.1475409836066022</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <v>34943</v>
       </c>
@@ -28539,11 +28747,14 @@
       <c r="O70" s="8">
         <v>2.8</v>
       </c>
-      <c r="P70" s="5">
+      <c r="P70" s="8">
+        <v>3.732154270950319</v>
+      </c>
+      <c r="Q70" s="5">
         <v>2.3544800523216454</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <v>34973</v>
       </c>
@@ -28590,11 +28801,14 @@
       <c r="O71" s="8">
         <v>2.9</v>
       </c>
-      <c r="P71" s="5">
+      <c r="P71" s="8">
+        <v>-3.5247395394534045</v>
+      </c>
+      <c r="Q71" s="5">
         <v>3.9164490861618804</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
         <v>35004</v>
       </c>
@@ -28641,11 +28855,14 @@
       <c r="O72" s="8">
         <v>2.8</v>
       </c>
-      <c r="P72" s="5">
+      <c r="P72" s="8">
+        <v>4.6552307865929361</v>
+      </c>
+      <c r="Q72" s="5">
         <v>-0.78074170461934411</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>35034</v>
       </c>
@@ -28692,11 +28909,14 @@
       <c r="O73" s="8">
         <v>2.7</v>
       </c>
-      <c r="P73" s="5">
+      <c r="P73" s="8">
+        <v>6.4564414216649242</v>
+      </c>
+      <c r="Q73" s="5">
         <v>-0.78124999999995559</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <v>35065</v>
       </c>
@@ -28743,11 +28963,14 @@
       <c r="O74" s="8">
         <v>2.8</v>
       </c>
-      <c r="P74" s="5">
+      <c r="P74" s="8">
+        <v>-0.3437290215719026</v>
+      </c>
+      <c r="Q74" s="5">
         <v>7.0358306188925521</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
         <v>35096</v>
       </c>
@@ -28794,11 +29017,14 @@
       <c r="O75" s="8">
         <v>2.8</v>
       </c>
-      <c r="P75" s="5">
+      <c r="P75" s="8">
+        <v>0.62177221284704498</v>
+      </c>
+      <c r="Q75" s="5">
         <v>3.8860103626943001</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
         <v>35125</v>
       </c>
@@ -28845,11 +29071,14 @@
       <c r="O76" s="8">
         <v>2.9</v>
       </c>
-      <c r="P76" s="5">
+      <c r="P76" s="8">
+        <v>10.294195460077235</v>
+      </c>
+      <c r="Q76" s="5">
         <v>6.1975468043897965</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
         <v>35156</v>
       </c>
@@ -28896,11 +29125,14 @@
       <c r="O77" s="8">
         <v>3</v>
       </c>
-      <c r="P77" s="5">
+      <c r="P77" s="8">
+        <v>5.2589630140063193</v>
+      </c>
+      <c r="Q77" s="5">
         <v>4.6242774566475742</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
         <v>35186</v>
       </c>
@@ -28947,11 +29179,14 @@
       <c r="O78" s="8">
         <v>3.1</v>
       </c>
-      <c r="P78" s="5">
+      <c r="P78" s="8">
+        <v>-8.1659231292317642</v>
+      </c>
+      <c r="Q78" s="5">
         <v>2.3032629558539957</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <v>35217</v>
       </c>
@@ -28998,16 +29233,19 @@
       <c r="O79" s="8">
         <v>2.9</v>
       </c>
-      <c r="P79" s="5">
+      <c r="P79" s="8">
+        <v>-3.8201241616820676</v>
+      </c>
+      <c r="Q79" s="5">
         <v>0.76628352490417095</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
         <v>35247</v>
       </c>
       <c r="B80" s="3">
-        <f t="shared" ref="B80:C143" ca="1" si="1">(($B80-$B79)/$B79)*100</f>
+        <f t="shared" ref="B80:B143" ca="1" si="1">(($B80-$B79)/$B79)*100</f>
         <v>0.31778751180966275</v>
       </c>
       <c r="C80">
@@ -29049,11 +29287,14 @@
       <c r="O80" s="8">
         <v>3</v>
       </c>
-      <c r="P80" s="5">
+      <c r="P80" s="8">
+        <v>6.0378162989591262</v>
+      </c>
+      <c r="Q80" s="5">
         <v>2.2973835354180832</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
         <v>35278</v>
       </c>
@@ -29100,11 +29341,14 @@
       <c r="O81" s="8">
         <v>3.1</v>
       </c>
-      <c r="P81" s="5">
+      <c r="P81" s="8">
+        <v>4.8729356973642366</v>
+      </c>
+      <c r="Q81" s="5">
         <v>2.2929936305733349</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
         <v>35309</v>
       </c>
@@ -29151,11 +29395,14 @@
       <c r="O82" s="8">
         <v>3.2</v>
       </c>
-      <c r="P82" s="5">
+      <c r="P82" s="8">
+        <v>10.260547501987876</v>
+      </c>
+      <c r="Q82" s="5">
         <v>3.814367450731087</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
         <v>35339</v>
       </c>
@@ -29202,11 +29449,14 @@
       <c r="O83" s="8">
         <v>3</v>
       </c>
-      <c r="P83" s="5">
+      <c r="P83" s="8">
+        <v>6.7702177023599823</v>
+      </c>
+      <c r="Q83" s="5">
         <v>3.8022813688212924</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
         <v>35370</v>
       </c>
@@ -29253,11 +29503,14 @@
       <c r="O84" s="8">
         <v>3</v>
       </c>
-      <c r="P84" s="5">
+      <c r="P84" s="8">
+        <v>-5.806843556510656</v>
+      </c>
+      <c r="Q84" s="5">
         <v>2.2741629816802247</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <v>35400</v>
       </c>
@@ -29304,11 +29557,14 @@
       <c r="O85" s="8">
         <v>3</v>
       </c>
-      <c r="P85" s="5">
+      <c r="P85" s="8">
+        <v>4.4477836213373312</v>
+      </c>
+      <c r="Q85" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
         <v>35431</v>
       </c>
@@ -29355,11 +29611,14 @@
       <c r="O86" s="8">
         <v>3</v>
       </c>
-      <c r="P86" s="5">
+      <c r="P86" s="8">
+        <v>-0.94225899402587787</v>
+      </c>
+      <c r="Q86" s="5">
         <v>3.7831021437578816</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
         <v>35462</v>
       </c>
@@ -29406,11 +29665,14 @@
       <c r="O87" s="8">
         <v>3</v>
       </c>
-      <c r="P87" s="5">
+      <c r="P87" s="8">
+        <v>-11.240214180206785</v>
+      </c>
+      <c r="Q87" s="5">
         <v>3.7712130735386555</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
         <v>35490</v>
       </c>
@@ -29457,11 +29719,14 @@
       <c r="O88" s="8">
         <v>2.8</v>
       </c>
-      <c r="P88" s="5">
+      <c r="P88" s="8">
+        <v>-8.3639197030900885</v>
+      </c>
+      <c r="Q88" s="5">
         <v>3.0075187969925246</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
         <v>35521</v>
       </c>
@@ -29508,11 +29773,14 @@
       <c r="O89" s="8">
         <v>3</v>
       </c>
-      <c r="P89" s="5">
+      <c r="P89" s="8">
+        <v>-8.337910318219107</v>
+      </c>
+      <c r="Q89" s="5">
         <v>1.4999999999999147</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
         <v>35551</v>
       </c>
@@ -29559,11 +29827,14 @@
       <c r="O90" s="8">
         <v>2.9</v>
       </c>
-      <c r="P90" s="5">
+      <c r="P90" s="8">
+        <v>8.6476969681278071</v>
+      </c>
+      <c r="Q90" s="5">
         <v>-0.74906367041194244</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <v>35582</v>
       </c>
@@ -29610,11 +29881,14 @@
       <c r="O91" s="8">
         <v>2.8</v>
       </c>
-      <c r="P91" s="5">
+      <c r="P91" s="8">
+        <v>-7.8330910564068432</v>
+      </c>
+      <c r="Q91" s="5">
         <v>1.4990630855716458</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="7">
         <v>35612</v>
       </c>
@@ -29661,11 +29935,14 @@
       <c r="O92" s="8">
         <v>2.7</v>
       </c>
-      <c r="P92" s="5">
+      <c r="P92" s="8">
+        <v>4.8548251471534254</v>
+      </c>
+      <c r="Q92" s="5">
         <v>1.4971927635682243</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
         <v>35643</v>
       </c>
@@ -29712,11 +29989,14 @@
       <c r="O93" s="8">
         <v>2.7</v>
       </c>
-      <c r="P93" s="5">
+      <c r="P93" s="8">
+        <v>0.7922842698887903</v>
+      </c>
+      <c r="Q93" s="5">
         <v>2.2429906542056921</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
         <v>35674</v>
       </c>
@@ -29763,11 +30043,14 @@
       <c r="O94" s="8">
         <v>2.8</v>
       </c>
-      <c r="P94" s="5">
+      <c r="P94" s="8">
+        <v>-0.7558476841097137</v>
+      </c>
+      <c r="Q94" s="5">
         <v>2.9850746268655017</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
         <v>35704</v>
       </c>
@@ -29814,11 +30097,14 @@
       <c r="O95" s="8">
         <v>2.8</v>
       </c>
-      <c r="P95" s="5">
+      <c r="P95" s="8">
+        <v>7.7342559307537373</v>
+      </c>
+      <c r="Q95" s="5">
         <v>2.9776674937965688</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="7">
         <v>35735</v>
       </c>
@@ -29865,11 +30151,14 @@
       <c r="O96" s="8">
         <v>2.9</v>
       </c>
-      <c r="P96" s="5">
+      <c r="P96" s="8">
+        <v>-3.48708688991027</v>
+      </c>
+      <c r="Q96" s="5">
         <v>-0.74257425742570038</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
         <v>35765</v>
       </c>
@@ -29916,11 +30205,14 @@
       <c r="O97" s="8">
         <v>2.8</v>
       </c>
-      <c r="P97" s="5">
+      <c r="P97" s="8">
+        <v>-10.446915022082155</v>
+      </c>
+      <c r="Q97" s="5">
         <v>-1.4860681114550238</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
         <v>35796</v>
       </c>
@@ -29967,11 +30259,14 @@
       <c r="O98" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P98" s="5">
+      <c r="P98" s="8">
+        <v>-11.370657703906579</v>
+      </c>
+      <c r="Q98" s="5">
         <v>2.2318660880345909</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <v>35827</v>
       </c>
@@ -30018,11 +30313,14 @@
       <c r="O99" s="8">
         <v>2.4</v>
       </c>
-      <c r="P99" s="5">
+      <c r="P99" s="8">
+        <v>-7.5425652667423595</v>
+      </c>
+      <c r="Q99" s="5">
         <v>2.2277227722773123</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="7">
         <v>35855</v>
       </c>
@@ -30069,11 +30367,14 @@
       <c r="O100" s="8">
         <v>2.5</v>
       </c>
-      <c r="P100" s="5">
+      <c r="P100" s="8">
+        <v>-6.8681771336449735</v>
+      </c>
+      <c r="Q100" s="5">
         <v>2.2235948116119797</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <v>35886</v>
       </c>
@@ -30120,11 +30421,14 @@
       <c r="O101" s="8">
         <v>2.4</v>
       </c>
-      <c r="P101" s="5">
+      <c r="P101" s="8">
+        <v>3.0249418947513944</v>
+      </c>
+      <c r="Q101" s="5">
         <v>2.2194821208385553</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="7">
         <v>35916</v>
       </c>
@@ -30171,11 +30475,14 @@
       <c r="O102" s="8">
         <v>2.6</v>
       </c>
-      <c r="P102" s="5">
+      <c r="P102" s="8">
+        <v>6.4691932869312696</v>
+      </c>
+      <c r="Q102" s="5">
         <v>2.2153846153846994</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="7">
         <v>35947</v>
       </c>
@@ -30222,11 +30529,14 @@
       <c r="O103" s="8">
         <v>2.7</v>
       </c>
-      <c r="P103" s="5">
+      <c r="P103" s="8">
+        <v>-15.073506157891359</v>
+      </c>
+      <c r="Q103" s="5">
         <v>1.4742014742013902</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="7">
         <v>35977</v>
       </c>
@@ -30273,11 +30583,14 @@
       <c r="O104" s="8">
         <v>2.6</v>
       </c>
-      <c r="P104" s="5">
+      <c r="P104" s="8">
+        <v>-1.0387894605613639</v>
+      </c>
+      <c r="Q104" s="5">
         <v>1.472392638036726</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="7">
         <v>36008</v>
       </c>
@@ -30324,11 +30637,14 @@
       <c r="O105" s="8">
         <v>2.4</v>
       </c>
-      <c r="P105" s="5">
+      <c r="P105" s="8">
+        <v>-1.3130674290375961</v>
+      </c>
+      <c r="Q105" s="5">
         <v>1.470588235294243</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="7">
         <v>36039</v>
       </c>
@@ -30375,11 +30691,14 @@
       <c r="O106" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P106" s="5">
+      <c r="P106" s="8">
+        <v>11.934314786435877</v>
+      </c>
+      <c r="Q106" s="5">
         <v>1.4687882496939189</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="7">
         <v>36069</v>
       </c>
@@ -30426,11 +30745,14 @@
       <c r="O107" s="8">
         <v>2.5</v>
       </c>
-      <c r="P107" s="5">
+      <c r="P107" s="8">
+        <v>-4.8065131489303283</v>
+      </c>
+      <c r="Q107" s="5">
         <v>2.9339853300733911</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="7">
         <v>36100</v>
       </c>
@@ -30477,11 +30799,14 @@
       <c r="O108" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P108" s="5">
+      <c r="P108" s="8">
+        <v>-13.093917473949688</v>
+      </c>
+      <c r="Q108" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="7">
         <v>36130</v>
       </c>
@@ -30528,11 +30853,14 @@
       <c r="O109" s="8">
         <v>2.5</v>
       </c>
-      <c r="P109" s="5">
+      <c r="P109" s="8">
+        <v>-10.936708765796569</v>
+      </c>
+      <c r="Q109" s="5">
         <v>-0.73170731707312908</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="7">
         <v>36161</v>
       </c>
@@ -30579,11 +30907,14 @@
       <c r="O110" s="8">
         <v>2.7</v>
       </c>
-      <c r="P110" s="5">
+      <c r="P110" s="8">
+        <v>12.768887681548577</v>
+      </c>
+      <c r="Q110" s="5">
         <v>2.9286150091519634</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
         <v>36192</v>
       </c>
@@ -30630,11 +30961,14 @@
       <c r="O111" s="8">
         <v>2.5</v>
       </c>
-      <c r="P111" s="5">
+      <c r="P111" s="8">
+        <v>-7.4919469140574817</v>
+      </c>
+      <c r="Q111" s="5">
         <v>1.4607425441265143</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="7">
         <v>36220</v>
       </c>
@@ -30681,11 +31015,14 @@
       <c r="O112" s="8">
         <v>2.7</v>
       </c>
-      <c r="P112" s="5">
+      <c r="P112" s="8">
+        <v>21.984150029991611</v>
+      </c>
+      <c r="Q112" s="5">
         <v>3.6474164133738602</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
         <v>36251</v>
       </c>
@@ -30732,11 +31069,14 @@
       <c r="O113" s="8">
         <v>2.7</v>
       </c>
-      <c r="P113" s="5">
+      <c r="P113" s="8">
+        <v>21.74081305128011</v>
+      </c>
+      <c r="Q113" s="5">
         <v>8.7272727272726449</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="7">
         <v>36281</v>
       </c>
@@ -30783,11 +31123,14 @@
       <c r="O114" s="8">
         <v>2.8</v>
       </c>
-      <c r="P114" s="5">
+      <c r="P114" s="8">
+        <v>0.19426195378921149</v>
+      </c>
+      <c r="Q114" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
         <v>36312</v>
       </c>
@@ -30834,11 +31177,14 @@
       <c r="O115" s="8">
         <v>2.5</v>
       </c>
-      <c r="P115" s="5">
+      <c r="P115" s="8">
+        <v>3.9462113647710413</v>
+      </c>
+      <c r="Q115" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="7">
         <v>36342</v>
       </c>
@@ -30885,11 +31231,14 @@
       <c r="O116" s="8">
         <v>2.7</v>
       </c>
-      <c r="P116" s="5">
+      <c r="P116" s="8">
+        <v>19.840110031806084</v>
+      </c>
+      <c r="Q116" s="5">
         <v>3.6101083032490977</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="7">
         <v>36373</v>
       </c>
@@ -30936,11 +31285,14 @@
       <c r="O117" s="8">
         <v>2.8</v>
       </c>
-      <c r="P117" s="5">
+      <c r="P117" s="8">
+        <v>6.3816560265881908</v>
+      </c>
+      <c r="Q117" s="5">
         <v>2.8794241151770055</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="7">
         <v>36404</v>
       </c>
@@ -30987,11 +31339,14 @@
       <c r="O118" s="8">
         <v>2.7</v>
       </c>
-      <c r="P118" s="5">
+      <c r="P118" s="8">
+        <v>11.469477658905012</v>
+      </c>
+      <c r="Q118" s="5">
         <v>5.7450628366248573</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="7">
         <v>36434</v>
       </c>
@@ -31038,11 +31393,14 @@
       <c r="O119" s="8">
         <v>2.9</v>
       </c>
-      <c r="P119" s="5">
+      <c r="P119" s="8">
+        <v>-2.3989553478413508</v>
+      </c>
+      <c r="Q119" s="5">
         <v>2.14413341274556</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="7">
         <v>36465</v>
       </c>
@@ -31089,11 +31447,14 @@
       <c r="O120" s="8">
         <v>2.9</v>
       </c>
-      <c r="P120" s="5">
+      <c r="P120" s="8">
+        <v>11.733775368663389</v>
+      </c>
+      <c r="Q120" s="5">
         <v>0.71343638525581032</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="7">
         <v>36495</v>
       </c>
@@ -31140,11 +31501,14 @@
       <c r="O121" s="8">
         <v>3</v>
       </c>
-      <c r="P121" s="5">
+      <c r="P121" s="8">
+        <v>3.3276927220036105</v>
+      </c>
+      <c r="Q121" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>36526</v>
       </c>
@@ -31191,11 +31555,14 @@
       <c r="O122" s="8">
         <v>3</v>
       </c>
-      <c r="P122">
+      <c r="P122" s="8">
+        <v>0.31949793182140529</v>
+      </c>
+      <c r="Q122">
         <v>3.5650623885918007</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>36557</v>
       </c>
@@ -31242,11 +31609,14 @@
       <c r="O123" s="8">
         <v>2.9</v>
       </c>
-      <c r="P123">
+      <c r="P123" s="8">
+        <v>8.99560870783891</v>
+      </c>
+      <c r="Q123">
         <v>7.109004739336493</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>36586</v>
       </c>
@@ -31293,11 +31663,14 @@
       <c r="O124" s="8">
         <v>3.2</v>
       </c>
-      <c r="P124">
+      <c r="P124" s="8">
+        <v>-1.0427358454702402</v>
+      </c>
+      <c r="Q124">
         <v>9.8939929328620302</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>36617</v>
       </c>
@@ -31344,11 +31717,14 @@
       <c r="O125" s="8">
         <v>3.2</v>
       </c>
-      <c r="P125">
+      <c r="P125" s="8">
+        <v>-16.885222563194031</v>
+      </c>
+      <c r="Q125">
         <v>0.70093457943941173</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>36647</v>
       </c>
@@ -31395,11 +31771,14 @@
       <c r="O126" s="8">
         <v>3</v>
       </c>
-      <c r="P126">
+      <c r="P126" s="8">
+        <v>21.112982576341523</v>
+      </c>
+      <c r="Q126">
         <v>1.4010507880909886</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>36678</v>
       </c>
@@ -31446,11 +31825,14 @@
       <c r="O127" s="8">
         <v>2.9</v>
       </c>
-      <c r="P127">
+      <c r="P127" s="8">
+        <v>7.6882088321974003</v>
+      </c>
+      <c r="Q127">
         <v>6.2973760932945</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>36708</v>
       </c>
@@ -31497,11 +31879,14 @@
       <c r="O128" s="8">
         <v>3</v>
       </c>
-      <c r="P128">
+      <c r="P128" s="8">
+        <v>-3.7357161018488503</v>
+      </c>
+      <c r="Q128">
         <v>2.7842227378190652</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>36739</v>
       </c>
@@ -31548,11 +31933,14 @@
       <c r="O129" s="8">
         <v>2.7</v>
       </c>
-      <c r="P129">
+      <c r="P129" s="8">
+        <v>5.2774768128694554</v>
+      </c>
+      <c r="Q129">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>36770</v>
       </c>
@@ -31599,11 +31987,14 @@
       <c r="O130" s="8">
         <v>2.9</v>
       </c>
-      <c r="P130">
+      <c r="P130" s="8">
+        <v>9.7650896041127844</v>
+      </c>
+      <c r="Q130">
         <v>6.2499999999998419</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>36800</v>
       </c>
@@ -31650,11 +32041,14 @@
       <c r="O131" s="8">
         <v>3.2</v>
       </c>
-      <c r="P131">
+      <c r="P131" s="8">
+        <v>-6.5888324077508473</v>
+      </c>
+      <c r="Q131">
         <v>2.0725388601037058</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>36831</v>
       </c>
@@ -31701,11 +32095,14 @@
       <c r="O132" s="8">
         <v>2.9</v>
       </c>
-      <c r="P132">
+      <c r="P132" s="8">
+        <v>5.1399124996329748</v>
+      </c>
+      <c r="Q132">
         <v>0.68965517241375396</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>36861</v>
       </c>
@@ -31752,11 +32149,14 @@
       <c r="O133" s="8">
         <v>2.8</v>
       </c>
-      <c r="P133">
+      <c r="P133" s="8">
+        <v>-22.176452791547415</v>
+      </c>
+      <c r="Q133">
         <v>-0.68925904652494652</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>36892</v>
       </c>
@@ -31803,11 +32203,14 @@
       <c r="O134" s="8">
         <v>3</v>
       </c>
-      <c r="P134">
+      <c r="P134" s="8">
+        <v>0.62700228832954563</v>
+      </c>
+      <c r="Q134">
         <v>7.5862068965516842</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>36923</v>
       </c>
@@ -31854,11 +32257,14 @@
       <c r="O135" s="8">
         <v>2.8</v>
       </c>
-      <c r="P135">
+      <c r="P135" s="8">
+        <v>7.8899747578114212</v>
+      </c>
+      <c r="Q135">
         <v>4.7972587093090828</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>36951</v>
       </c>
@@ -31905,11 +32311,14 @@
       <c r="O136" s="8">
         <v>2.8</v>
       </c>
-      <c r="P136">
+      <c r="P136" s="8">
+        <v>-10.93034440244794</v>
+      </c>
+      <c r="Q136">
         <v>2.7303754266210052</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>36982</v>
       </c>
@@ -31956,11 +32365,14 @@
       <c r="O137" s="8">
         <v>3.1</v>
       </c>
-      <c r="P137">
+      <c r="P137" s="8">
+        <v>4.7346908481728338</v>
+      </c>
+      <c r="Q137">
         <v>4.7673098751420007</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>37012</v>
       </c>
@@ -32007,11 +32419,14 @@
       <c r="O138" s="8">
         <v>3.2</v>
       </c>
-      <c r="P138">
+      <c r="P138" s="8">
+        <v>10.417594654788436</v>
+      </c>
+      <c r="Q138">
         <v>5.4267947993215344</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>37043</v>
       </c>
@@ -32058,11 +32473,14 @@
       <c r="O139" s="8">
         <v>3</v>
       </c>
-      <c r="P139">
+      <c r="P139" s="8">
+        <v>-1.697678718504686</v>
+      </c>
+      <c r="Q139">
         <v>2.0258863252673813</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>37073</v>
       </c>
@@ -32109,11 +32527,14 @@
       <c r="O140" s="8">
         <v>2.6</v>
       </c>
-      <c r="P140">
+      <c r="P140" s="8">
+        <v>-11.617672890179451</v>
+      </c>
+      <c r="Q140">
         <v>-3.3707865168539328</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>37104</v>
       </c>
@@ -32160,11 +32581,14 @@
       <c r="O141" s="8">
         <v>2.7</v>
       </c>
-      <c r="P141">
+      <c r="P141" s="8">
+        <v>4.3324099722991845</v>
+      </c>
+      <c r="Q141">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>37135</v>
       </c>
@@ -32211,11 +32635,14 @@
       <c r="O142" s="8">
         <v>2.8</v>
       </c>
-      <c r="P142">
+      <c r="P142" s="8">
+        <v>-0.23559190031153082</v>
+      </c>
+      <c r="Q142">
         <v>5.4084507042254293</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>37165</v>
       </c>
@@ -32262,16 +32689,19 @@
       <c r="O143" s="8">
         <v>1</v>
       </c>
-      <c r="P143">
+      <c r="P143" s="8">
+        <v>-19.835179894390905</v>
+      </c>
+      <c r="Q143">
         <v>-4.0381379697141178</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>37196</v>
       </c>
       <c r="B144" s="3">
-        <f t="shared" ref="B144:C207" ca="1" si="2">(($B144-$B143)/$B143)*100</f>
+        <f t="shared" ref="B144:B207" ca="1" si="2">(($B144-$B143)/$B143)*100</f>
         <v>-1.9435086810055152E-2</v>
       </c>
       <c r="C144">
@@ -32313,11 +32743,14 @@
       <c r="O144" s="8">
         <v>0.4</v>
       </c>
-      <c r="P144">
+      <c r="P144" s="8">
+        <v>-8.4748665818589632</v>
+      </c>
+      <c r="Q144">
         <v>-2.025886325267189</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>37226</v>
       </c>
@@ -32364,11 +32797,14 @@
       <c r="O145" s="8">
         <v>1.8</v>
       </c>
-      <c r="P145">
+      <c r="P145" s="8">
+        <v>-0.51748319388694819</v>
+      </c>
+      <c r="Q145">
         <v>-4.7350620067644895</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>37257</v>
       </c>
@@ -32415,11 +32851,14 @@
       <c r="O146" s="8">
         <v>1.9</v>
       </c>
-      <c r="P146">
+      <c r="P146" s="8">
+        <v>3.8177168100441756</v>
+      </c>
+      <c r="Q146">
         <v>2.716468590831957</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>37288</v>
       </c>
@@ -32466,11 +32905,14 @@
       <c r="O147" s="8">
         <v>2.1</v>
       </c>
-      <c r="P147">
+      <c r="P147" s="8">
+        <v>4.4379871002418794</v>
+      </c>
+      <c r="Q147">
         <v>4.7430830039526839</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>37316</v>
       </c>
@@ -32517,11 +32959,14 @@
       <c r="O148" s="8">
         <v>2.7</v>
       </c>
-      <c r="P148">
+      <c r="P148" s="8">
+        <v>16.873402217783372</v>
+      </c>
+      <c r="Q148">
         <v>6.7491563554555682</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>37347</v>
       </c>
@@ -32568,11 +33013,14 @@
       <c r="O149" s="8">
         <v>2.8</v>
       </c>
-      <c r="P149">
+      <c r="P149" s="8">
+        <v>8.5749178378239943</v>
+      </c>
+      <c r="Q149">
         <v>6.7114093959731527</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>37377</v>
       </c>
@@ -32619,11 +33067,14 @@
       <c r="O150" s="8">
         <v>2.7</v>
       </c>
-      <c r="P150">
+      <c r="P150" s="8">
+        <v>-1.4125077100691297</v>
+      </c>
+      <c r="Q150">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>37408</v>
       </c>
@@ -32670,11 +33121,14 @@
       <c r="O151" s="8">
         <v>2.7</v>
       </c>
-      <c r="P151">
+      <c r="P151" s="8">
+        <v>-5.1437264312649962</v>
+      </c>
+      <c r="Q151">
         <v>0.66740823136814886</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>37438</v>
       </c>
@@ -32721,11 +33175,14 @@
       <c r="O152" s="8">
         <v>2.6</v>
       </c>
-      <c r="P152">
+      <c r="P152" s="8">
+        <v>6.9640570915888587</v>
+      </c>
+      <c r="Q152">
         <v>1.3340744858253828</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>37469</v>
       </c>
@@ -32772,11 +33229,14 @@
       <c r="O153" s="8">
         <v>2.6</v>
       </c>
-      <c r="P153">
+      <c r="P153" s="8">
+        <v>3.5563941067970459</v>
+      </c>
+      <c r="Q153">
         <v>3.9977790116601506</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>37500</v>
       </c>
@@ -32823,11 +33283,14 @@
       <c r="O154" s="8">
         <v>2.5</v>
       </c>
-      <c r="P154">
+      <c r="P154" s="8">
+        <v>6.5593648303043874</v>
+      </c>
+      <c r="Q154">
         <v>1.9922523519646578</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>37530</v>
       </c>
@@ -32874,11 +33337,14 @@
       <c r="O155" s="8">
         <v>2.5</v>
       </c>
-      <c r="P155">
+      <c r="P155" s="8">
+        <v>-3.0158263814822082</v>
+      </c>
+      <c r="Q155">
         <v>1.9889502762431694</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>37561</v>
       </c>
@@ -32925,11 +33391,14 @@
       <c r="O156" s="8">
         <v>2.4</v>
       </c>
-      <c r="P156">
+      <c r="P156" s="8">
+        <v>-11.64651751559199</v>
+      </c>
+      <c r="Q156">
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>37591</v>
       </c>
@@ -32976,11 +33445,14 @@
       <c r="O157" s="8">
         <v>2.5</v>
       </c>
-      <c r="P157">
+      <c r="P157" s="8">
+        <v>17.403636790573191</v>
+      </c>
+      <c r="Q157">
         <v>-2.6475455046883996</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>37622</v>
       </c>
@@ -33027,11 +33499,14 @@
       <c r="O158" s="8">
         <v>2.5</v>
       </c>
-      <c r="P158">
+      <c r="P158" s="8">
+        <v>8.9845849487952165</v>
+      </c>
+      <c r="Q158">
         <v>5.3067993366499699</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>37653</v>
       </c>
@@ -33078,11 +33553,14 @@
       <c r="O159" s="8">
         <v>2.7</v>
       </c>
-      <c r="P159">
+      <c r="P159" s="8">
+        <v>5.2464533065236729</v>
+      </c>
+      <c r="Q159">
         <v>9.2460099064392232</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>37681</v>
       </c>
@@ -33129,11 +33607,14 @@
       <c r="O160" s="8">
         <v>3.1</v>
       </c>
-      <c r="P160">
+      <c r="P160" s="8">
+        <v>-6.5869794867994615</v>
+      </c>
+      <c r="Q160">
         <v>7.209175314036008</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>37712</v>
       </c>
@@ -33180,11 +33661,14 @@
       <c r="O161" s="8">
         <v>2.4</v>
       </c>
-      <c r="P161">
+      <c r="P161" s="8">
+        <v>-18.112454853735997</v>
+      </c>
+      <c r="Q161">
         <v>-2.6058631921822624</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>37742</v>
       </c>
@@ -33231,11 +33715,14 @@
       <c r="O162" s="8">
         <v>2</v>
       </c>
-      <c r="P162">
+      <c r="P162" s="8">
+        <v>3.1514624018567847</v>
+      </c>
+      <c r="Q162">
         <v>-1.9586507072906074</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>37773</v>
       </c>
@@ -33282,11 +33769,14 @@
       <c r="O163" s="8">
         <v>2.1</v>
       </c>
-      <c r="P163">
+      <c r="P163" s="8">
+        <v>6.9423343018364712</v>
+      </c>
+      <c r="Q163">
         <v>1.3079019073568738</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>37803</v>
       </c>
@@ -33333,11 +33823,14 @@
       <c r="O164" s="8">
         <v>1.7</v>
       </c>
-      <c r="P164">
+      <c r="P164" s="8">
+        <v>2.5163349512927518</v>
+      </c>
+      <c r="Q164">
         <v>1.3064779531846515</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>37834</v>
       </c>
@@ -33384,11 +33877,14 @@
       <c r="O165" s="8">
         <v>2.5</v>
       </c>
-      <c r="P165">
+      <c r="P165" s="8">
+        <v>5.4302307408040562</v>
+      </c>
+      <c r="Q165">
         <v>4.5676998368677886</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>37865</v>
       </c>
@@ -33435,11 +33931,14 @@
       <c r="O166" s="8">
         <v>2.8</v>
       </c>
-      <c r="P166">
+      <c r="P166" s="8">
+        <v>-9.287385123440238</v>
+      </c>
+      <c r="Q166">
         <v>3.9003250270855534</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>37895</v>
       </c>
@@ -33486,11 +33985,14 @@
       <c r="O167" s="8">
         <v>2.6</v>
       </c>
-      <c r="P167">
+      <c r="P167" s="8">
+        <v>9.2045155520048549</v>
+      </c>
+      <c r="Q167">
         <v>-1.2958963282936629</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>37926</v>
       </c>
@@ -33537,11 +34039,14 @@
       <c r="O168" s="8">
         <v>2.7</v>
       </c>
-      <c r="P168">
+      <c r="P168" s="8">
+        <v>-2.8888513612734532</v>
+      </c>
+      <c r="Q168">
         <v>-3.2432432432432434</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>37956</v>
       </c>
@@ -33588,11 +34093,14 @@
       <c r="O169" s="8">
         <v>2.6</v>
       </c>
-      <c r="P169">
+      <c r="P169" s="8">
+        <v>3.5599928928675419</v>
+      </c>
+      <c r="Q169">
         <v>-1.3008130081300076</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>37987</v>
       </c>
@@ -33639,11 +34147,14 @@
       <c r="O170" s="8">
         <v>2.7</v>
       </c>
-      <c r="P170">
+      <c r="P170" s="8">
+        <v>4.9041926898391921</v>
+      </c>
+      <c r="Q170">
         <v>5.8600108518717988</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>38018</v>
       </c>
@@ -33690,11 +34201,14 @@
       <c r="O171" s="8">
         <v>2.6</v>
       </c>
-      <c r="P171">
+      <c r="P171" s="8">
+        <v>-1.2096915017462353</v>
+      </c>
+      <c r="Q171">
         <v>6.4794816414686833</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>38047</v>
       </c>
@@ -33741,11 +34255,14 @@
       <c r="O172" s="8">
         <v>2.9</v>
       </c>
-      <c r="P172">
+      <c r="P172" s="8">
+        <v>8.9954075087478635</v>
+      </c>
+      <c r="Q172">
         <v>7.7336197636950628</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>38078</v>
       </c>
@@ -33792,11 +34309,14 @@
       <c r="O173" s="8">
         <v>3.2</v>
       </c>
-      <c r="P173">
+      <c r="P173" s="8">
+        <v>-0.1291499255537045</v>
+      </c>
+      <c r="Q173">
         <v>3.8420490928494835</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>38108</v>
       </c>
@@ -33843,11 +34363,14 @@
       <c r="O174" s="8">
         <v>3.3</v>
       </c>
-      <c r="P174">
+      <c r="P174" s="8">
+        <v>11.838649397512716</v>
+      </c>
+      <c r="Q174">
         <v>7.0212765957446432</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>38139</v>
       </c>
@@ -33894,11 +34417,14 @@
       <c r="O175" s="8">
         <v>3.3</v>
       </c>
-      <c r="P175">
+      <c r="P175" s="8">
+        <v>-6.3458444916641019</v>
+      </c>
+      <c r="Q175">
         <v>3.8075092543627349</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>38169</v>
       </c>
@@ -33945,11 +34471,14 @@
       <c r="O176" s="8">
         <v>3</v>
       </c>
-      <c r="P176">
+      <c r="P176" s="8">
+        <v>8.6339207276109615</v>
+      </c>
+      <c r="Q176">
         <v>-1.8977332630468084</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>38200</v>
       </c>
@@ -33996,11 +34525,14 @@
       <c r="O177" s="8">
         <v>2.8</v>
       </c>
-      <c r="P177">
+      <c r="P177" s="8">
+        <v>11.832982506213826</v>
+      </c>
+      <c r="Q177">
         <v>0.63357972544874952</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>38231</v>
       </c>
@@ -34047,11 +34579,14 @@
       <c r="O178" s="8">
         <v>2.8</v>
       </c>
-      <c r="P178">
+      <c r="P178" s="8">
+        <v>1.0591575656390577</v>
+      </c>
+      <c r="Q178">
         <v>2.5329815303430436</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>38261</v>
       </c>
@@ -34098,11 +34633,14 @@
       <c r="O179" s="8">
         <v>3.1</v>
       </c>
-      <c r="P179">
+      <c r="P179" s="8">
+        <v>15.232252656094881</v>
+      </c>
+      <c r="Q179">
         <v>6.3191153238546605</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>38292</v>
       </c>
@@ -34149,11 +34687,14 @@
       <c r="O180" s="8">
         <v>2.8</v>
       </c>
-      <c r="P180">
+      <c r="P180" s="8">
+        <v>-13.392242927500408</v>
+      </c>
+      <c r="Q180">
         <v>0.62860136196958183</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>38322</v>
       </c>
@@ -34200,11 +34741,14 @@
       <c r="O181" s="8">
         <v>3</v>
       </c>
-      <c r="P181">
+      <c r="P181" s="8">
+        <v>-8.1378882904424454</v>
+      </c>
+      <c r="Q181">
         <v>-4.3979057591622324</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>38353</v>
       </c>
@@ -34251,11 +34795,14 @@
       <c r="O182" s="8">
         <v>2.9</v>
       </c>
-      <c r="P182">
+      <c r="P182" s="8">
+        <v>11.893809288550452</v>
+      </c>
+      <c r="Q182">
         <v>2.5223331581711648</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>38384</v>
       </c>
@@ -34302,11 +34849,14 @@
       <c r="O183" s="8">
         <v>2.9</v>
       </c>
-      <c r="P183">
+      <c r="P183" s="8">
+        <v>2.6236889614855694</v>
+      </c>
+      <c r="Q183">
         <v>6.9218668065025035</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>38412</v>
       </c>
@@ -34353,11 +34903,14 @@
       <c r="O184" s="8">
         <v>3.2</v>
       </c>
-      <c r="P184">
+      <c r="P184" s="8">
+        <v>16.705308698042419</v>
+      </c>
+      <c r="Q184">
         <v>9.3847758081334725</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>38443</v>
       </c>
@@ -34404,11 +34957,14 @@
       <c r="O185" s="8">
         <v>3.3</v>
       </c>
-      <c r="P185">
+      <c r="P185" s="8">
+        <v>-2.2383468604744454</v>
+      </c>
+      <c r="Q185">
         <v>8.0703569580961165</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>38473</v>
       </c>
@@ -34455,11 +35011,14 @@
       <c r="O186" s="8">
         <v>3.2</v>
       </c>
-      <c r="P186">
+      <c r="P186" s="8">
+        <v>-6.2415520527051624</v>
+      </c>
+      <c r="Q186">
         <v>-1.2332990750256239</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>38504</v>
       </c>
@@ -34506,11 +35065,14 @@
       <c r="O187" s="8">
         <v>3.2</v>
       </c>
-      <c r="P187">
+      <c r="P187" s="8">
+        <v>11.736124088955325</v>
+      </c>
+      <c r="Q187">
         <v>0.61728395061724883</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>38534</v>
       </c>
@@ -34557,11 +35119,14 @@
       <c r="O188" s="8">
         <v>3</v>
       </c>
-      <c r="P188">
+      <c r="P188" s="8">
+        <v>5.8237163405251824</v>
+      </c>
+      <c r="Q188">
         <v>5.5526992287918091</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>38565</v>
       </c>
@@ -34608,11 +35173,14 @@
       <c r="O189" s="8">
         <v>3.1</v>
       </c>
-      <c r="P189">
+      <c r="P189" s="8">
+        <v>11.236923262986016</v>
+      </c>
+      <c r="Q189">
         <v>6.1412487205731825</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>38596</v>
       </c>
@@ -34659,11 +35227,14 @@
       <c r="O190" s="8">
         <v>4.3</v>
       </c>
-      <c r="P190">
+      <c r="P190" s="8">
+        <v>-1.6805845382515834</v>
+      </c>
+      <c r="Q190">
         <v>14.663951120162968</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>38626</v>
       </c>
@@ -34710,11 +35281,14 @@
       <c r="O191" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P191">
+      <c r="P191" s="8">
+        <v>-6.9460128449420369</v>
+      </c>
+      <c r="Q191">
         <v>2.4144869215290381</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>38657</v>
       </c>
@@ -34761,11 +35335,14 @@
       <c r="O192" s="8">
         <v>3.3</v>
       </c>
-      <c r="P192">
+      <c r="P192" s="8">
+        <v>-5.6317623855510863</v>
+      </c>
+      <c r="Q192">
         <v>-9.6385542168674352</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>38687</v>
       </c>
@@ -34812,11 +35389,14 @@
       <c r="O193" s="8">
         <v>3.1</v>
       </c>
-      <c r="P193">
+      <c r="P193" s="8">
+        <v>2.895533686601063</v>
+      </c>
+      <c r="Q193">
         <v>-4.8582995951415979</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>38718</v>
       </c>
@@ -34863,11 +35443,14 @@
       <c r="O194" s="8">
         <v>3</v>
       </c>
-      <c r="P194">
+      <c r="P194" s="8">
+        <v>10.437341564641621</v>
+      </c>
+      <c r="Q194">
         <v>9.1463414634146343</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>38749</v>
       </c>
@@ -34914,11 +35497,14 @@
       <c r="O195" s="8">
         <v>3</v>
       </c>
-      <c r="P195">
+      <c r="P195" s="8">
+        <v>-4.0846324844500099</v>
+      </c>
+      <c r="Q195">
         <v>2.4205748865354146</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>38777</v>
       </c>
@@ -34965,11 +35551,14 @@
       <c r="O196" s="8">
         <v>3</v>
       </c>
-      <c r="P196">
+      <c r="P196" s="8">
+        <v>3.0805225190095507</v>
+      </c>
+      <c r="Q196">
         <v>6.6431806743836299</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>38808</v>
       </c>
@@ -35016,11 +35605,14 @@
       <c r="O197" s="8">
         <v>3.3</v>
       </c>
-      <c r="P197">
+      <c r="P197" s="8">
+        <v>13.064119538490642</v>
+      </c>
+      <c r="Q197">
         <v>10.210210210210139</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>38838</v>
       </c>
@@ -35067,11 +35659,14 @@
       <c r="O198" s="8">
         <v>4</v>
       </c>
-      <c r="P198">
+      <c r="P198" s="8">
+        <v>-0.56438156878126711</v>
+      </c>
+      <c r="Q198">
         <v>5.9553349875930524</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>38869</v>
       </c>
@@ -35118,11 +35713,14 @@
       <c r="O199" s="8">
         <v>3.3</v>
       </c>
-      <c r="P199">
+      <c r="P199" s="8">
+        <v>-1.749929334406563</v>
+      </c>
+      <c r="Q199">
         <v>2.370370370370404</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>38899</v>
       </c>
@@ -35169,11 +35767,14 @@
       <c r="O200" s="8">
         <v>3.2</v>
       </c>
-      <c r="P200">
+      <c r="P200" s="8">
+        <v>7.4659889880380055</v>
+      </c>
+      <c r="Q200">
         <v>3.5485460818136669</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>38930</v>
       </c>
@@ -35220,11 +35821,14 @@
       <c r="O201" s="8">
         <v>3.8</v>
       </c>
-      <c r="P201">
+      <c r="P201" s="8">
+        <v>-0.60245026792428757</v>
+      </c>
+      <c r="Q201">
         <v>2.3587223587223924</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>38961</v>
       </c>
@@ -35271,11 +35875,14 @@
       <c r="O202" s="8">
         <v>3.1</v>
       </c>
-      <c r="P202">
+      <c r="P202" s="8">
+        <v>-15.392320675821235</v>
+      </c>
+      <c r="Q202">
         <v>-5.8852378616969103</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>38991</v>
       </c>
@@ -35322,11 +35929,14 @@
       <c r="O203" s="8">
         <v>3.1</v>
       </c>
-      <c r="P203">
+      <c r="P203" s="8">
+        <v>-6.6986528493065105</v>
+      </c>
+      <c r="Q203">
         <v>-6.5056678166584181</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>39022</v>
       </c>
@@ -35373,11 +35983,14 @@
       <c r="O204" s="8">
         <v>3</v>
       </c>
-      <c r="P204">
+      <c r="P204" s="8">
+        <v>1.6488700875937536</v>
+      </c>
+      <c r="Q204">
         <v>-1.7839444995045275</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>39052</v>
       </c>
@@ -35424,11 +36037,14 @@
       <c r="O205" s="8">
         <v>2.9</v>
       </c>
-      <c r="P205">
+      <c r="P205" s="8">
+        <v>6.2254514646701908</v>
+      </c>
+      <c r="Q205">
         <v>1.7866004962779831</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>39083</v>
       </c>
@@ -35475,11 +36091,14 @@
       <c r="O206" s="8">
         <v>3</v>
       </c>
-      <c r="P206">
+      <c r="P206" s="8">
+        <v>-13.891211640462611</v>
+      </c>
+      <c r="Q206">
         <v>3.6630327056490706</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>39114</v>
       </c>
@@ -35526,16 +36145,19 @@
       <c r="O207" s="8">
         <v>3</v>
       </c>
-      <c r="P207">
+      <c r="P207" s="8">
+        <v>7.0109689213894137</v>
+      </c>
+      <c r="Q207">
         <v>6.4204410718520171</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>39142</v>
       </c>
       <c r="B208" s="3">
-        <f t="shared" ref="B208:C271" ca="1" si="3">(($B208-$B207)/$B207)*100</f>
+        <f t="shared" ref="B208:B271" ca="1" si="3">(($B208-$B207)/$B207)*100</f>
         <v>0.77019523553644942</v>
       </c>
       <c r="C208">
@@ -35577,11 +36199,14 @@
       <c r="O208" s="8">
         <v>3</v>
       </c>
-      <c r="P208">
+      <c r="P208" s="8">
+        <v>7.8819384624624833</v>
+      </c>
+      <c r="Q208">
         <v>10.926835021302368</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>39173</v>
       </c>
@@ -35628,11 +36253,14 @@
       <c r="O209" s="8">
         <v>3.3</v>
       </c>
-      <c r="P209">
+      <c r="P209" s="8">
+        <v>9.0149721058585488</v>
+      </c>
+      <c r="Q209">
         <v>7.795395223810841</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>39203</v>
       </c>
@@ -35679,11 +36307,14 @@
       <c r="O210" s="8">
         <v>3.3</v>
       </c>
-      <c r="P210">
+      <c r="P210" s="8">
+        <v>-0.41319544236243499</v>
+      </c>
+      <c r="Q210">
         <v>7.3328624096455792</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>39234</v>
       </c>
@@ -35730,11 +36361,14 @@
       <c r="O211" s="8">
         <v>3.4</v>
       </c>
-      <c r="P211">
+      <c r="P211" s="8">
+        <v>5.4641780682351282</v>
+      </c>
+      <c r="Q211">
         <v>2.3255702119269142</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>39264</v>
       </c>
@@ -35781,11 +36415,14 @@
       <c r="O212" s="8">
         <v>3.4</v>
       </c>
-      <c r="P212">
+      <c r="P212" s="8">
+        <v>8.1115689184940472</v>
+      </c>
+      <c r="Q212">
         <v>-0.30525264936260138</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>39295</v>
       </c>
@@ -35832,11 +36469,14 @@
       <c r="O213" s="8">
         <v>3.2</v>
       </c>
-      <c r="P213">
+      <c r="P213" s="8">
+        <v>-7.8738109211924243</v>
+      </c>
+      <c r="Q213">
         <v>-2.2006826725044575</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>39326</v>
       </c>
@@ -35883,11 +36523,14 @@
       <c r="O214" s="8">
         <v>3.1</v>
       </c>
-      <c r="P214">
+      <c r="P214" s="8">
+        <v>8.7168663594470086</v>
+      </c>
+      <c r="Q214">
         <v>3.3070888864306864</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>39356</v>
       </c>
@@ -35934,11 +36577,14 @@
       <c r="O215" s="8">
         <v>3.1</v>
       </c>
-      <c r="P215">
+      <c r="P215" s="8">
+        <v>7.0337584006031548</v>
+      </c>
+      <c r="Q215">
         <v>2.5670295937454912</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>39387</v>
       </c>
@@ -35985,11 +36631,14 @@
       <c r="O216" s="8">
         <v>3.4</v>
       </c>
-      <c r="P216">
+      <c r="P216" s="8">
+        <v>12.376068187338527</v>
+      </c>
+      <c r="Q216">
         <v>7.1275414480988566</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>39417</v>
       </c>
@@ -36036,11 +36685,14 @@
       <c r="O217" s="8">
         <v>3.4</v>
       </c>
-      <c r="P217">
+      <c r="P217" s="8">
+        <v>-1.6648081467035485</v>
+      </c>
+      <c r="Q217">
         <v>-0.80503575557739127</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>39448</v>
       </c>
@@ -36087,11 +36739,14 @@
       <c r="O218" s="8">
         <v>3.4</v>
       </c>
-      <c r="P218">
+      <c r="P218" s="8">
+        <v>1.2571854527731225</v>
+      </c>
+      <c r="Q218">
         <v>5.9646917671257</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>39479</v>
       </c>
@@ -36138,11 +36793,14 @@
       <c r="O219" s="8">
         <v>3.6</v>
       </c>
-      <c r="P219">
+      <c r="P219" s="8">
+        <v>3.1981309049659483</v>
+      </c>
+      <c r="Q219">
         <v>3.4849346219442836</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>39508</v>
       </c>
@@ -36189,11 +36847,14 @@
       <c r="O220" s="8">
         <v>4.3</v>
       </c>
-      <c r="P220">
+      <c r="P220" s="8">
+        <v>8.8045715659416732</v>
+      </c>
+      <c r="Q220">
         <v>10.401855517187508</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>39539</v>
       </c>
@@ -36240,11 +36901,14 @@
       <c r="O221" s="8">
         <v>4.8</v>
       </c>
-      <c r="P221">
+      <c r="P221" s="8">
+        <v>5.4319530291801001</v>
+      </c>
+      <c r="Q221">
         <v>7.2777340676633475</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>39569</v>
       </c>
@@ -36291,11 +36955,14 @@
       <c r="O222" s="8">
         <v>5.2</v>
       </c>
-      <c r="P222">
+      <c r="P222" s="8">
+        <v>12.872723029542843</v>
+      </c>
+      <c r="Q222">
         <v>10.105063238107636</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>39600</v>
       </c>
@@ -36342,11 +37009,14 @@
       <c r="O223" s="8">
         <v>5.0999999999999996</v>
       </c>
-      <c r="P223">
+      <c r="P223" s="8">
+        <v>7.4814610868308842</v>
+      </c>
+      <c r="Q223">
         <v>12.092396321872997</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>39630</v>
       </c>
@@ -36393,11 +37063,14 @@
       <c r="O224" s="8">
         <v>5.0999999999999996</v>
       </c>
-      <c r="P224">
+      <c r="P224" s="8">
+        <v>0.66817176382858112</v>
+      </c>
+      <c r="Q224">
         <v>6.3012133537463209</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>39661</v>
       </c>
@@ -36444,11 +37117,14 @@
       <c r="O225" s="8">
         <v>4.8</v>
       </c>
-      <c r="P225">
+      <c r="P225" s="8">
+        <v>-14.986644906840757</v>
+      </c>
+      <c r="Q225">
         <v>-4.7898747067701217</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>39692</v>
       </c>
@@ -36495,11 +37171,14 @@
       <c r="O226" s="8">
         <v>4.3</v>
       </c>
-      <c r="P226">
+      <c r="P226" s="8">
+        <v>-13.483969890528002</v>
+      </c>
+      <c r="Q226">
         <v>-1.6596222487974166</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>39722</v>
       </c>
@@ -36546,11 +37225,14 @@
       <c r="O227" s="8">
         <v>3.9</v>
       </c>
-      <c r="P227">
+      <c r="P227" s="8">
+        <v>-26.937310311356661</v>
+      </c>
+      <c r="Q227">
         <v>-12.121599941494429</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>39753</v>
       </c>
@@ -36597,11 +37279,14 @@
       <c r="O228" s="8">
         <v>2.9</v>
       </c>
-      <c r="P228">
+      <c r="P228" s="8">
+        <v>-26.937815462921904</v>
+      </c>
+      <c r="Q228">
         <v>-22.98347439431506</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>39783</v>
       </c>
@@ -36648,11 +37333,14 @@
       <c r="O229" s="8">
         <v>1.7</v>
       </c>
-      <c r="P229">
+      <c r="P229" s="8">
+        <v>-24.076088515269703</v>
+      </c>
+      <c r="Q229">
         <v>-12.410968577144889</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>39814</v>
       </c>
@@ -36699,11 +37387,14 @@
       <c r="O230" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P230">
+      <c r="P230" s="8">
+        <v>8.5233742912658474</v>
+      </c>
+      <c r="Q230">
         <v>5.2229008505051207</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>39845</v>
       </c>
@@ -36750,11 +37441,14 @@
       <c r="O231" s="8">
         <v>1.9</v>
       </c>
-      <c r="P231">
+      <c r="P231" s="8">
+        <v>0.54354819995148185</v>
+      </c>
+      <c r="Q231">
         <v>5.9675196430855566</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>39873</v>
       </c>
@@ -36801,11 +37495,14 @@
       <c r="O232" s="8">
         <v>2</v>
       </c>
-      <c r="P232">
+      <c r="P232" s="8">
+        <v>7.4179879414550776</v>
+      </c>
+      <c r="Q232">
         <v>2.9180981464986564</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>39904</v>
       </c>
@@ -36852,11 +37549,14 @@
       <c r="O233" s="8">
         <v>2.8</v>
       </c>
-      <c r="P233">
+      <c r="P233" s="8">
+        <v>8.0340661594507612</v>
+      </c>
+      <c r="Q233">
         <v>2.9956419333455897</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>39934</v>
       </c>
@@ -36903,11 +37603,14 @@
       <c r="O234" s="8">
         <v>2.8</v>
       </c>
-      <c r="P234">
+      <c r="P234" s="8">
+        <v>14.100171551692576</v>
+      </c>
+      <c r="Q234">
         <v>3.4665166010128612</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>39965</v>
       </c>
@@ -36954,11 +37657,14 @@
       <c r="O235" s="8">
         <v>3.1</v>
       </c>
-      <c r="P235">
+      <c r="P235" s="8">
+        <v>19.593314342847439</v>
+      </c>
+      <c r="Q235">
         <v>10.307870716744075</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>39995</v>
       </c>
@@ -37005,11 +37711,14 @@
       <c r="O236" s="8">
         <v>2.9</v>
       </c>
-      <c r="P236">
+      <c r="P236" s="8">
+        <v>-6.0011642902222455</v>
+      </c>
+      <c r="Q236">
         <v>-1.9027043065839666</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>40026</v>
       </c>
@@ -37056,11 +37765,14 @@
       <c r="O237" s="8">
         <v>2.8</v>
       </c>
-      <c r="P237">
+      <c r="P237" s="8">
+        <v>12.430031473798168</v>
+      </c>
+      <c r="Q237">
         <v>2.6914200537727009</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>40057</v>
       </c>
@@ -37107,11 +37819,14 @@
       <c r="O238" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P238">
+      <c r="P238" s="8">
+        <v>-6.819166923391057</v>
+      </c>
+      <c r="Q238">
         <v>0.75057683219506233</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>40087</v>
       </c>
@@ -37158,11 +37873,14 @@
       <c r="O239" s="8">
         <v>2.9</v>
       </c>
-      <c r="P239">
+      <c r="P239" s="8">
+        <v>7.7044691572311779</v>
+      </c>
+      <c r="Q239">
         <v>1.1557214229819932</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>40118</v>
       </c>
@@ -37209,11 +37927,14 @@
       <c r="O240" s="8">
         <v>2.7</v>
       </c>
-      <c r="P240">
+      <c r="P240" s="8">
+        <v>5.3429955742986381</v>
+      </c>
+      <c r="Q240">
         <v>0.84930404252082337</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>40148</v>
       </c>
@@ -37260,11 +37981,14 @@
       <c r="O241" s="8">
         <v>2.5</v>
       </c>
-      <c r="P241">
+      <c r="P241" s="8">
+        <v>-2.8322002893671208</v>
+      </c>
+      <c r="Q241">
         <v>-2.1134378033559851</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>40179</v>
       </c>
@@ -37311,11 +38035,14 @@
       <c r="O242" s="8">
         <v>2.8</v>
       </c>
-      <c r="P242">
+      <c r="P242" s="8">
+        <v>2.4116247634946575</v>
+      </c>
+      <c r="Q242">
         <v>4.1009682841782062</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>40210</v>
       </c>
@@ -37362,11 +38089,14 @@
       <c r="O243" s="8">
         <v>2.7</v>
       </c>
-      <c r="P243">
+      <c r="P243" s="8">
+        <v>-3.4658601445747039</v>
+      </c>
+      <c r="Q243">
         <v>0.29904885849175289</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>40238</v>
       </c>
@@ -37413,11 +38143,14 @@
       <c r="O244" s="8">
         <v>2.7</v>
       </c>
-      <c r="P244">
+      <c r="P244" s="8">
+        <v>7.0457112458722033</v>
+      </c>
+      <c r="Q244">
         <v>4.927540243885483</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>40269</v>
       </c>
@@ -37464,11 +38197,14 @@
       <c r="O245" s="8">
         <v>2.9</v>
       </c>
-      <c r="P245">
+      <c r="P245" s="8">
+        <v>7.473024815815613</v>
+      </c>
+      <c r="Q245">
         <v>2.0842618928368801</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>40299</v>
       </c>
@@ -37515,11 +38251,14 @@
       <c r="O246" s="8">
         <v>3.2</v>
       </c>
-      <c r="P246">
+      <c r="P246" s="8">
+        <v>-10.520697601929493</v>
+      </c>
+      <c r="Q246">
         <v>0.93023682508526429</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>40330</v>
       </c>
@@ -37566,11 +38305,14 @@
       <c r="O247" s="8">
         <v>2.8</v>
       </c>
-      <c r="P247">
+      <c r="P247" s="8">
+        <v>-1.3776475485994191</v>
+      </c>
+      <c r="Q247">
         <v>-1.1715205016087444</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>40360</v>
       </c>
@@ -37617,11 +38359,14 @@
       <c r="O248" s="8">
         <v>2.7</v>
       </c>
-      <c r="P248">
+      <c r="P248" s="8">
+        <v>0.86275034351933499</v>
+      </c>
+      <c r="Q248">
         <v>0.25325166884587302</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>40391</v>
       </c>
@@ -37668,11 +38413,14 @@
       <c r="O249" s="8">
         <v>2.7</v>
       </c>
-      <c r="P249">
+      <c r="P249" s="8">
+        <v>2.1664566919640871</v>
+      </c>
+      <c r="Q249">
         <v>1.656797134089653</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>40422</v>
       </c>
@@ -37719,11 +38467,14 @@
       <c r="O250" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P250">
+      <c r="P250" s="8">
+        <v>0.87381333081594981</v>
+      </c>
+      <c r="Q250">
         <v>0.69808347685870376</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>40452</v>
       </c>
@@ -37770,11 +38521,14 @@
       <c r="O251" s="8">
         <v>2.7</v>
       </c>
-      <c r="P251">
+      <c r="P251" s="8">
+        <v>6.3722311721937288</v>
+      </c>
+      <c r="Q251">
         <v>1.4942386661723581</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>40483</v>
       </c>
@@ -37821,11 +38575,14 @@
       <c r="O252" s="8">
         <v>3</v>
       </c>
-      <c r="P252">
+      <c r="P252" s="8">
+        <v>3.1163788859818671</v>
+      </c>
+      <c r="Q252">
         <v>0.50477570858338838</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>40513</v>
       </c>
@@ -37872,11 +38629,14 @@
       <c r="O253" s="8">
         <v>3</v>
       </c>
-      <c r="P253">
+      <c r="P253" s="8">
+        <v>7.3917912264472472</v>
+      </c>
+      <c r="Q253">
         <v>2.0621289470437136</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>40544</v>
       </c>
@@ -37923,11 +38683,14 @@
       <c r="O254" s="8">
         <v>3.4</v>
       </c>
-      <c r="P254">
+      <c r="P254" s="8">
+        <v>5.5115882379283239</v>
+      </c>
+      <c r="Q254">
         <v>5.7158760647690396</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>40575</v>
       </c>
@@ -37974,11 +38737,14 @@
       <c r="O255" s="8">
         <v>3.4</v>
       </c>
-      <c r="P255">
+      <c r="P255" s="8">
+        <v>7.3025838990696883</v>
+      </c>
+      <c r="Q255">
         <v>5.9176380305416831</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>40603</v>
       </c>
@@ -38025,11 +38791,14 @@
       <c r="O256" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P256">
+      <c r="P256" s="8">
+        <v>10.616485120073326</v>
+      </c>
+      <c r="Q256">
         <v>11.701286436611339</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>40634</v>
       </c>
@@ -38076,11 +38845,14 @@
       <c r="O257" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P257">
+      <c r="P257" s="8">
+        <v>7.6849825184927774</v>
+      </c>
+      <c r="Q257">
         <v>7.7273154425485266</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>40664</v>
       </c>
@@ -38127,11 +38899,14 @@
       <c r="O258" s="8">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P258">
+      <c r="P258" s="8">
+        <v>-6.8617422854403269</v>
+      </c>
+      <c r="Q258">
         <v>5.6450250326802802</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>40695</v>
       </c>
@@ -38178,11 +38953,14 @@
       <c r="O259" s="8">
         <v>3.8</v>
       </c>
-      <c r="P259">
+      <c r="P259" s="8">
+        <v>-0.99975490389865129</v>
+      </c>
+      <c r="Q259">
         <v>-1.2851604680391047</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>40725</v>
       </c>
@@ -38229,11 +39007,14 @@
       <c r="O260" s="8">
         <v>3.4</v>
       </c>
-      <c r="P260">
+      <c r="P260" s="8">
+        <v>2.4594545105020802</v>
+      </c>
+      <c r="Q260">
         <v>1.0632548001523392</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>40756</v>
       </c>
@@ -38280,11 +39061,14 @@
       <c r="O261" s="8">
         <v>3.5</v>
       </c>
-      <c r="P261">
+      <c r="P261" s="8">
+        <v>-5.421535646443747</v>
+      </c>
+      <c r="Q261">
         <v>3.3091066828373887</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>40787</v>
       </c>
@@ -38331,11 +39115,14 @@
       <c r="O262" s="8">
         <v>3.3</v>
       </c>
-      <c r="P262">
+      <c r="P262" s="8">
+        <v>2.4154983173476623</v>
+      </c>
+      <c r="Q262">
         <v>1.8221545388334635</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>40817</v>
       </c>
@@ -38382,11 +39169,14 @@
       <c r="O263" s="8">
         <v>3.2</v>
       </c>
-      <c r="P263">
+      <c r="P263" s="8">
+        <v>-3.030863874661526</v>
+      </c>
+      <c r="Q263">
         <v>-2.4752191600298881</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>40848</v>
       </c>
@@ -38433,11 +39223,14 @@
       <c r="O264" s="8">
         <v>3.2</v>
       </c>
-      <c r="P264">
+      <c r="P264" s="8">
+        <v>0.94850836064892929</v>
+      </c>
+      <c r="Q264">
         <v>-1.0122735965303704</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>40878</v>
       </c>
@@ -38484,11 +39277,14 @@
       <c r="O265" s="8">
         <v>3.1</v>
       </c>
-      <c r="P265">
+      <c r="P265" s="8">
+        <v>-2.3424141786136699</v>
+      </c>
+      <c r="Q265">
         <v>-2.9598196525659342</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>40909</v>
       </c>
@@ -38535,11 +39331,14 @@
       <c r="O266" s="8">
         <v>3.3</v>
       </c>
-      <c r="P266">
+      <c r="P266" s="8">
+        <v>2.3451474555654488</v>
+      </c>
+      <c r="Q266">
         <v>5.2802297139210621</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>40940</v>
       </c>
@@ -38586,11 +39385,14 @@
       <c r="O267" s="8">
         <v>3.3</v>
       </c>
-      <c r="P267">
+      <c r="P267" s="8">
+        <v>8.0163139529260121</v>
+      </c>
+      <c r="Q267">
         <v>5.2835682615314354</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>40969</v>
       </c>
@@ -38637,11 +39439,14 @@
       <c r="O268" s="8">
         <v>3.9</v>
       </c>
-      <c r="P268">
+      <c r="P268" s="8">
+        <v>5.0703184572035962</v>
+      </c>
+      <c r="Q268">
         <v>9.1134703487171027</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>41000</v>
       </c>
@@ -38688,11 +39493,14 @@
       <c r="O269" s="8">
         <v>3.2</v>
       </c>
-      <c r="P269">
+      <c r="P269" s="8">
+        <v>-4.2957219122158721</v>
+      </c>
+      <c r="Q269">
         <v>3.6252354048964852</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>41030</v>
       </c>
@@ -38739,11 +39547,14 @@
       <c r="O270" s="8">
         <v>3</v>
       </c>
-      <c r="P270">
+      <c r="P270" s="8">
+        <v>-8.1357716344093838</v>
+      </c>
+      <c r="Q270">
         <v>-1.4081752395854239</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>41061</v>
       </c>
@@ -38790,16 +39601,19 @@
       <c r="O271" s="8">
         <v>3.1</v>
       </c>
-      <c r="P271">
+      <c r="P271" s="8">
+        <v>-13.721584429407741</v>
+      </c>
+      <c r="Q271">
         <v>-1.7596762613405865</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>41091</v>
       </c>
       <c r="B272" s="3">
-        <f t="shared" ref="B272:C335" ca="1" si="4">(($B272-$B271)/$B271)*100</f>
+        <f t="shared" ref="B272:B335" ca="1" si="4">(($B272-$B271)/$B271)*100</f>
         <v>0.20848925478455382</v>
       </c>
       <c r="C272">
@@ -38841,11 +39655,14 @@
       <c r="O272" s="8">
         <v>3</v>
       </c>
-      <c r="P272">
+      <c r="P272" s="8">
+        <v>7.7124439913252782</v>
+      </c>
+      <c r="Q272">
         <v>-1.9557430341906166</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>41122</v>
       </c>
@@ -38892,11 +39709,14 @@
       <c r="O273" s="8">
         <v>3.6</v>
       </c>
-      <c r="P273">
+      <c r="P273" s="8">
+        <v>10.597189785863376</v>
+      </c>
+      <c r="Q273">
         <v>6.6781898177245829</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>41153</v>
       </c>
@@ -38943,11 +39763,14 @@
       <c r="O274" s="8">
         <v>3.3</v>
       </c>
-      <c r="P274">
+      <c r="P274" s="8">
+        <v>-0.38735189993820601</v>
+      </c>
+      <c r="Q274">
         <v>5.3546547211335405</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>41183</v>
       </c>
@@ -38994,11 +39817,14 @@
       <c r="O275" s="8">
         <v>3.1</v>
       </c>
-      <c r="P275">
+      <c r="P275" s="8">
+        <v>-1.0681566414114865</v>
+      </c>
+      <c r="Q275">
         <v>-0.46671016866388693</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>41214</v>
       </c>
@@ -39045,11 +39871,14 @@
       <c r="O276" s="8">
         <v>3.1</v>
       </c>
-      <c r="P276">
+      <c r="P276" s="8">
+        <v>-2.3029878444672196</v>
+      </c>
+      <c r="Q276">
         <v>-5.6857040338583165</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>41244</v>
       </c>
@@ -39096,11 +39925,14 @@
       <c r="O277" s="8">
         <v>3.2</v>
       </c>
-      <c r="P277">
+      <c r="P277" s="8">
+        <v>0.28003738062711964</v>
+      </c>
+      <c r="Q277">
         <v>-3.2316773882487064</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>41275</v>
       </c>
@@ -39147,11 +39979,14 @@
       <c r="O278" s="8">
         <v>3.3</v>
       </c>
-      <c r="P278">
+      <c r="P278" s="8">
+        <v>3.0773139397094931</v>
+      </c>
+      <c r="Q278">
         <v>3.5487650315111976</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>41306</v>
       </c>
@@ -39198,11 +40033,14 @@
       <c r="O279" s="8">
         <v>3.3</v>
       </c>
-      <c r="P279">
+      <c r="P279" s="8">
+        <v>2.9307773242839912</v>
+      </c>
+      <c r="Q279">
         <v>9.8280354351224375</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>41334</v>
       </c>
@@ -39249,11 +40087,14 @@
       <c r="O280" s="8">
         <v>3.2</v>
       </c>
-      <c r="P280">
+      <c r="P280" s="8">
+        <v>-6.5835328430275188</v>
+      </c>
+      <c r="Q280">
         <v>3.1374103012499637</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>41365</v>
       </c>
@@ -39300,11 +40141,14 @@
       <c r="O281" s="8">
         <v>3.1</v>
       </c>
-      <c r="P281">
+      <c r="P281" s="8">
+        <v>-5.7388773109994746</v>
+      </c>
+      <c r="Q281">
         <v>-1.2475673725044927</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>41395</v>
       </c>
@@ -39351,11 +40195,14 @@
       <c r="O282" s="8">
         <v>3.1</v>
       </c>
-      <c r="P282">
+      <c r="P282" s="8">
+        <v>0.24755699822066746</v>
+      </c>
+      <c r="Q282">
         <v>2.1364893283045476</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>41426</v>
       </c>
@@ -39402,11 +40249,14 @@
       <c r="O283" s="8">
         <v>3</v>
       </c>
-      <c r="P283">
+      <c r="P283" s="8">
+        <v>0.40799056639786246</v>
+      </c>
+      <c r="Q283">
         <v>2.8796497027195129</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>41456</v>
       </c>
@@ -39453,11 +40303,14 @@
       <c r="O284" s="8">
         <v>3.1</v>
       </c>
-      <c r="P284">
+      <c r="P284" s="8">
+        <v>4.7948618348194403</v>
+      </c>
+      <c r="Q284">
         <v>0.47279703987946908</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>41487</v>
       </c>
@@ -39504,11 +40357,14 @@
       <c r="O285" s="8">
         <v>3</v>
       </c>
-      <c r="P285">
+      <c r="P285" s="8">
+        <v>3.176605105333389</v>
+      </c>
+      <c r="Q285">
         <v>1.4435178684566818</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>41518</v>
       </c>
@@ -39555,11 +40411,14 @@
       <c r="O286" s="8">
         <v>3.3</v>
       </c>
-      <c r="P286">
+      <c r="P286" s="8">
+        <v>0.47115853493682253</v>
+      </c>
+      <c r="Q286">
         <v>1.3956053823163015</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>41548</v>
       </c>
@@ -39606,11 +40465,14 @@
       <c r="O287" s="8">
         <v>3</v>
       </c>
-      <c r="P287">
+      <c r="P287" s="8">
+        <v>-2.4401824387010347</v>
+      </c>
+      <c r="Q287">
         <v>-3.0903399117656294</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>41579</v>
       </c>
@@ -39657,11 +40519,14 @@
       <c r="O288" s="8">
         <v>2.9</v>
       </c>
-      <c r="P288">
+      <c r="P288" s="8">
+        <v>-1.0236132591399469</v>
+      </c>
+      <c r="Q288">
         <v>-2.4509090286282129</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>41609</v>
       </c>
@@ -39708,11 +40573,14 @@
       <c r="O289" s="8">
         <v>3</v>
       </c>
-      <c r="P289">
+      <c r="P289" s="8">
+        <v>2.6247094883627282</v>
+      </c>
+      <c r="Q289">
         <v>-0.10297379745902789</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>41640</v>
       </c>
@@ -39759,11 +40627,14 @@
       <c r="O290" s="8">
         <v>3.1</v>
       </c>
-      <c r="P290">
+      <c r="P290" s="8">
+        <v>-2.3433160463904636</v>
+      </c>
+      <c r="Q290">
         <v>4.4642972078832699</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>41671</v>
       </c>
@@ -39810,11 +40681,14 @@
       <c r="O291" s="8">
         <v>3.2</v>
       </c>
-      <c r="P291">
+      <c r="P291" s="8">
+        <v>0.63736166587639875</v>
+      </c>
+      <c r="Q291">
         <v>4.4374903811625153</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>41699</v>
       </c>
@@ -39861,11 +40735,14 @@
       <c r="O292" s="8">
         <v>3.2</v>
       </c>
-      <c r="P292">
+      <c r="P292" s="8">
+        <v>-1.2912906215136777</v>
+      </c>
+      <c r="Q292">
         <v>7.7280529514739289</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>41730</v>
       </c>
@@ -39912,11 +40789,14 @@
       <c r="O293" s="8">
         <v>3.2</v>
       </c>
-      <c r="P293">
+      <c r="P293" s="8">
+        <v>0.34124641031734515</v>
+      </c>
+      <c r="Q293">
         <v>3.9561053437892597</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>41760</v>
       </c>
@@ -39963,11 +40843,14 @@
       <c r="O294" s="8">
         <v>3.3</v>
       </c>
-      <c r="P294">
+      <c r="P294" s="8">
+        <v>1.5682886224263708</v>
+      </c>
+      <c r="Q294">
         <v>4.1911318080583264</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>41791</v>
       </c>
@@ -40014,11 +40897,14 @@
       <c r="O295" s="8">
         <v>3.1</v>
       </c>
-      <c r="P295">
+      <c r="P295" s="8">
+        <v>2.0596730969947825</v>
+      </c>
+      <c r="Q295">
         <v>2.234552332912906</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>41821</v>
       </c>
@@ -40065,11 +40951,14 @@
       <c r="O296" s="8">
         <v>3.3</v>
       </c>
-      <c r="P296">
+      <c r="P296" s="8">
+        <v>-4.4106442753406832</v>
+      </c>
+      <c r="Q296">
         <v>-0.46823275699301925</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>41852</v>
       </c>
@@ -40116,11 +41005,14 @@
       <c r="O297" s="8">
         <v>3.2</v>
       </c>
-      <c r="P297">
+      <c r="P297" s="8">
+        <v>-4.9186213128310268</v>
+      </c>
+      <c r="Q297">
         <v>-2.0046169989506626</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>41883</v>
       </c>
@@ -40167,11 +41059,14 @@
       <c r="O298" s="8">
         <v>3</v>
       </c>
-      <c r="P298">
+      <c r="P298" s="8">
+        <v>-4.2649650831413375</v>
+      </c>
+      <c r="Q298">
         <v>0.90308258917310957</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>41913</v>
       </c>
@@ -40218,11 +41113,14 @@
       <c r="O299" s="8">
         <v>2.9</v>
       </c>
-      <c r="P299">
+      <c r="P299" s="8">
+        <v>-10.125288190468602</v>
+      </c>
+      <c r="Q299">
         <v>-3.014733375064659</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>41944</v>
       </c>
@@ -40269,11 +41167,14 @@
       <c r="O300" s="8">
         <v>2.8</v>
       </c>
-      <c r="P300">
+      <c r="P300" s="8">
+        <v>-9.2532997145386364</v>
+      </c>
+      <c r="Q300">
         <v>-6.4793015292734317</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>41974</v>
       </c>
@@ -40320,11 +41221,14 @@
       <c r="O301" s="8">
         <v>2.8</v>
       </c>
-      <c r="P301">
+      <c r="P301" s="8">
+        <v>-21.62946956417613</v>
+      </c>
+      <c r="Q301">
         <v>-6.804121092013153</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>42005</v>
       </c>
@@ -40371,11 +41275,14 @@
       <c r="O302" s="8">
         <v>2.5</v>
       </c>
-      <c r="P302">
+      <c r="P302" s="8">
+        <v>-22.664845992864798</v>
+      </c>
+      <c r="Q302">
         <v>-5.6470708481679885</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>42036</v>
       </c>
@@ -40422,11 +41329,14 @@
       <c r="O303" s="8">
         <v>2.8</v>
       </c>
-      <c r="P303">
+      <c r="P303" s="8">
+        <v>20.821768887544444</v>
+      </c>
+      <c r="Q303">
         <v>5.2116539085265643</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>42064</v>
       </c>
@@ -40473,11 +41383,14 @@
       <c r="O304" s="8">
         <v>3</v>
       </c>
-      <c r="P304">
+      <c r="P304" s="8">
+        <v>-3.8041594521872746</v>
+      </c>
+      <c r="Q304">
         <v>7.1420659333168164</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>42095</v>
       </c>
@@ -40524,11 +41437,14 @@
       <c r="O305" s="8">
         <v>2.6</v>
       </c>
-      <c r="P305">
+      <c r="P305" s="8">
+        <v>6.2026222468035312</v>
+      </c>
+      <c r="Q305">
         <v>2.4394479055052227</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>42125</v>
       </c>
@@ -40575,11 +41491,14 @@
       <c r="O306" s="8">
         <v>2.8</v>
       </c>
-      <c r="P306">
+      <c r="P306" s="8">
+        <v>8.0080844505615083</v>
+      </c>
+      <c r="Q306">
         <v>6.1166784305936241</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>42156</v>
       </c>
@@ -40626,11 +41545,14 @@
       <c r="O307" s="8">
         <v>2.7</v>
       </c>
-      <c r="P307">
+      <c r="P307" s="8">
+        <v>-4.0980335219675545</v>
+      </c>
+      <c r="Q307">
         <v>4.2034439982338387</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>42186</v>
       </c>
@@ -40677,11 +41599,14 @@
       <c r="O308" s="8">
         <v>2.8</v>
       </c>
-      <c r="P308">
+      <c r="P308" s="8">
+        <v>-7.9970798254967477</v>
+      </c>
+      <c r="Q308">
         <v>8.0456591154758908E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>42217</v>
       </c>
@@ -40728,11 +41653,14 @@
       <c r="O309" s="8">
         <v>2.8</v>
       </c>
-      <c r="P309">
+      <c r="P309" s="8">
+        <v>-17.639300841059612</v>
+      </c>
+      <c r="Q309">
         <v>-1.6995315393833443</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>42248</v>
       </c>
@@ -40779,11 +41707,14 @@
       <c r="O310" s="8">
         <v>2.8</v>
       </c>
-      <c r="P310">
+      <c r="P310" s="8">
+        <v>2.2301428216973074</v>
+      </c>
+      <c r="Q310">
         <v>-1.8681078903641015</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>42278</v>
       </c>
@@ -40830,11 +41761,14 @@
       <c r="O311" s="8">
         <v>2.7</v>
       </c>
-      <c r="P311">
+      <c r="P311" s="8">
+        <v>1.6941710969638504</v>
+      </c>
+      <c r="Q311">
         <v>-0.53962050053583466</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>42309</v>
       </c>
@@ -40881,11 +41815,14 @@
       <c r="O312" s="8">
         <v>2.7</v>
       </c>
-      <c r="P312">
+      <c r="P312" s="8">
+        <v>-8.5946333933118932</v>
+      </c>
+      <c r="Q312">
         <v>-2.5328164548977767</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>42339</v>
       </c>
@@ -40932,11 +41869,14 @@
       <c r="O313" s="8">
         <v>2.6</v>
       </c>
-      <c r="P313">
+      <c r="P313" s="8">
+        <v>-14.223296475511727</v>
+      </c>
+      <c r="Q313">
         <v>-4.1005157245424559</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>42370</v>
       </c>
@@ -40983,11 +41923,14 @@
       <c r="O314" s="8">
         <v>2.5</v>
       </c>
-      <c r="P314">
+      <c r="P314" s="8">
+        <v>-18.409565030583199</v>
+      </c>
+      <c r="Q314">
         <v>1.9837226508825256</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>42401</v>
       </c>
@@ -41034,11 +41977,14 @@
       <c r="O315" s="8">
         <v>2.5</v>
       </c>
-      <c r="P315">
+      <c r="P315" s="8">
+        <v>3.8164770980633054</v>
+      </c>
+      <c r="Q315">
         <v>0.98769184014583988</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>42430</v>
       </c>
@@ -41085,11 +42031,14 @@
       <c r="O316" s="8">
         <v>2.7</v>
       </c>
-      <c r="P316">
+      <c r="P316" s="8">
+        <v>18.817448980971243</v>
+      </c>
+      <c r="Q316">
         <v>5.167200172071384</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>42461</v>
       </c>
@@ -41136,11 +42085,14 @@
       <c r="O317" s="8">
         <v>2.8</v>
       </c>
-      <c r="P317">
+      <c r="P317" s="8">
+        <v>8.812308485786259</v>
+      </c>
+      <c r="Q317">
         <v>5.6892815749247845</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>42491</v>
       </c>
@@ -41187,11 +42139,14 @@
       <c r="O318" s="8">
         <v>2.4</v>
       </c>
-      <c r="P318">
+      <c r="P318" s="8">
+        <v>12.663144470759679</v>
+      </c>
+      <c r="Q318">
         <v>4.8549491977381241</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>42522</v>
       </c>
@@ -41238,11 +42193,14 @@
       <c r="O319" s="8">
         <v>2.6</v>
       </c>
-      <c r="P319">
+      <c r="P319" s="8">
+        <v>2.9844374587650875</v>
+      </c>
+      <c r="Q319">
         <v>3.9412394007383984</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>42552</v>
       </c>
@@ -41289,11 +42247,14 @@
       <c r="O320" s="8">
         <v>2.7</v>
       </c>
-      <c r="P320">
+      <c r="P320" s="8">
+        <v>-6.8301642333146857</v>
+      </c>
+      <c r="Q320">
         <v>-1.9417636856998968</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>42583</v>
       </c>
@@ -41340,11 +42301,14 @@
       <c r="O321" s="8">
         <v>2.5</v>
       </c>
-      <c r="P321">
+      <c r="P321" s="8">
+        <v>1.9824270430278197</v>
+      </c>
+      <c r="Q321">
         <v>1.1021161294612614</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>42614</v>
       </c>
@@ -41391,11 +42355,14 @@
       <c r="O322" s="8">
         <v>2.4</v>
       </c>
-      <c r="P322">
+      <c r="P322" s="8">
+        <v>1.5807933755752186</v>
+      </c>
+      <c r="Q322">
         <v>2.8847950375546891</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>42644</v>
       </c>
@@ -41442,11 +42409,14 @@
       <c r="O323" s="8">
         <v>2.4</v>
       </c>
-      <c r="P323">
+      <c r="P323" s="8">
+        <v>6.3448526537478136</v>
+      </c>
+      <c r="Q323">
         <v>1.4960982156171587</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>42675</v>
       </c>
@@ -41493,11 +42463,14 @@
       <c r="O324" s="8">
         <v>2.4</v>
       </c>
-      <c r="P324">
+      <c r="P324" s="8">
+        <v>-9.6689414991866212</v>
+      </c>
+      <c r="Q324">
         <v>-1.8665530408019131</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>42705</v>
       </c>
@@ -41544,11 +42517,14 @@
       <c r="O325" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P325">
+      <c r="P325" s="8">
+        <v>19.293806838388463</v>
+      </c>
+      <c r="Q325">
         <v>0.39278567078086934</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>42736</v>
       </c>
@@ -41595,11 +42571,14 @@
       <c r="O326" s="8">
         <v>2.6</v>
       </c>
-      <c r="P326">
+      <c r="P326" s="8">
+        <v>2.3031779426420065</v>
+      </c>
+      <c r="Q326">
         <v>6.9932734683058282</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>42767</v>
       </c>
@@ -41646,11 +42625,14 @@
       <c r="O327" s="8">
         <v>2.7</v>
       </c>
-      <c r="P327">
+      <c r="P327" s="8">
+        <v>0.50446685039173855</v>
+      </c>
+      <c r="Q327">
         <v>3.7753408636998671</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>42795</v>
       </c>
@@ -41697,11 +42679,14 @@
       <c r="O328" s="8">
         <v>2.5</v>
       </c>
-      <c r="P328">
+      <c r="P328" s="8">
+        <v>-5.9784936352935709</v>
+      </c>
+      <c r="Q328">
         <v>0.97535744633676469</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>42826</v>
       </c>
@@ -41748,11 +42733,14 @@
       <c r="O329" s="8">
         <v>2.5</v>
       </c>
-      <c r="P329">
+      <c r="P329" s="8">
+        <v>1.6590114196620838</v>
+      </c>
+      <c r="Q329">
         <v>3.5586400383920322</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>42856</v>
       </c>
@@ -41799,11 +42787,14 @@
       <c r="O330" s="8">
         <v>2.6</v>
       </c>
-      <c r="P330">
+      <c r="P330" s="8">
+        <v>-4.0394284695768512</v>
+      </c>
+      <c r="Q330">
         <v>1.0256661922756205</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>42887</v>
       </c>
@@ -41850,11 +42841,14 @@
       <c r="O331" s="8">
         <v>2.6</v>
       </c>
-      <c r="P331">
+      <c r="P331" s="8">
+        <v>-7.8653159093068785</v>
+      </c>
+      <c r="Q331">
         <v>1.0885332178333536</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>42917</v>
       </c>
@@ -41901,11 +42895,14 @@
       <c r="O332" s="8">
         <v>2.6</v>
       </c>
-      <c r="P332">
+      <c r="P332" s="8">
+        <v>4.5513745151035616</v>
+      </c>
+      <c r="Q332">
         <v>-0.82790716662249531</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>42948</v>
       </c>
@@ -41952,11 +42949,14 @@
       <c r="O333" s="8">
         <v>2.6</v>
       </c>
-      <c r="P333">
+      <c r="P333" s="8">
+        <v>6.65402527850559</v>
+      </c>
+      <c r="Q333">
         <v>3.5933427565302134</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>42979</v>
       </c>
@@ -42003,11 +43003,14 @@
       <c r="O334" s="8">
         <v>2.7</v>
       </c>
-      <c r="P334">
+      <c r="P334" s="8">
+        <v>8.603743212724023</v>
+      </c>
+      <c r="Q334">
         <v>6.3538870718762279</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>43009</v>
       </c>
@@ -42054,16 +43057,19 @@
       <c r="O335" s="8">
         <v>2.4</v>
       </c>
-      <c r="P335">
+      <c r="P335" s="8">
+        <v>2.4128249189943149</v>
+      </c>
+      <c r="Q335">
         <v>-0.75845052447328998</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>43040</v>
       </c>
       <c r="B336" s="3">
-        <f t="shared" ref="B336:C399" ca="1" si="5">(($B336-$B335)/$B335)*100</f>
+        <f t="shared" ref="B336:B399" ca="1" si="5">(($B336-$B335)/$B335)*100</f>
         <v>0.33427305678613939</v>
       </c>
       <c r="C336">
@@ -42105,11 +43111,14 @@
       <c r="O336" s="8">
         <v>2.5</v>
       </c>
-      <c r="P336">
+      <c r="P336" s="8">
+        <v>9.0533288016630244</v>
+      </c>
+      <c r="Q336">
         <v>2.9189623088992967E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>43070</v>
       </c>
@@ -42156,11 +43165,14 @@
       <c r="O337" s="8">
         <v>2.7</v>
       </c>
-      <c r="P337">
+      <c r="P337" s="8">
+        <v>2.6821716502881205</v>
+      </c>
+      <c r="Q337">
         <v>-0.70539873271474041</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>43101</v>
       </c>
@@ -42207,11 +43219,14 @@
       <c r="O338" s="8">
         <v>2.7</v>
       </c>
-      <c r="P338">
+      <c r="P338" s="8">
+        <v>7.1107108685364127</v>
+      </c>
+      <c r="Q338">
         <v>6.5372945433304146</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>43132</v>
       </c>
@@ -42258,11 +43273,14 @@
       <c r="O339" s="8">
         <v>2.7</v>
       </c>
-      <c r="P339">
+      <c r="P339" s="8">
+        <v>-5.3029443467408113</v>
+      </c>
+      <c r="Q339">
         <v>5.4416279698387786</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>43160</v>
       </c>
@@ -42309,11 +43327,14 @@
       <c r="O340" s="8">
         <v>2.8</v>
       </c>
-      <c r="P340">
+      <c r="P340" s="8">
+        <v>1.2794148860287233</v>
+      </c>
+      <c r="Q340">
         <v>2.7133510849789175</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>43191</v>
       </c>
@@ -42360,11 +43381,14 @@
       <c r="O341" s="8">
         <v>2.7</v>
       </c>
-      <c r="P341">
+      <c r="P341" s="8">
+        <v>8.7763969038146996</v>
+      </c>
+      <c r="Q341">
         <v>4.7701098760187701</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>43221</v>
       </c>
@@ -42411,11 +43435,14 @@
       <c r="O342" s="8">
         <v>2.8</v>
       </c>
-      <c r="P342">
+      <c r="P342" s="8">
+        <v>6.8137731893744409</v>
+      </c>
+      <c r="Q342">
         <v>4.9907003105218282</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>43252</v>
       </c>
@@ -42462,11 +43489,14 @@
       <c r="O343" s="8">
         <v>3</v>
       </c>
-      <c r="P343">
+      <c r="P343" s="8">
+        <v>-3.1971669329333889</v>
+      </c>
+      <c r="Q343">
         <v>1.9126508418526025</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>43282</v>
       </c>
@@ -42513,11 +43543,14 @@
       <c r="O344" s="8">
         <v>2.9</v>
       </c>
-      <c r="P344">
+      <c r="P344" s="8">
+        <v>-0.20250181818181412</v>
+      </c>
+      <c r="Q344">
         <v>8.0955914742290691E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>43313</v>
       </c>
@@ -42564,11 +43597,14 @@
       <c r="O345" s="8">
         <v>3</v>
       </c>
-      <c r="P345">
+      <c r="P345" s="8">
+        <v>-2.3242221652657746</v>
+      </c>
+      <c r="Q345">
         <v>0.66665079402864869</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>43344</v>
       </c>
@@ -42615,11 +43651,14 @@
       <c r="O346" s="8">
         <v>2.7</v>
       </c>
-      <c r="P346">
+      <c r="P346" s="8">
+        <v>8.7727722327128763</v>
+      </c>
+      <c r="Q346">
         <v>1.394430211068221</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>43374</v>
       </c>
@@ -42666,11 +43705,14 @@
       <c r="O347" s="8">
         <v>2.9</v>
       </c>
-      <c r="P347">
+      <c r="P347" s="8">
+        <v>2.7140914845083577</v>
+      </c>
+      <c r="Q347">
         <v>2.1201161468711156</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>43405</v>
       </c>
@@ -42717,11 +43759,14 @@
       <c r="O348" s="8">
         <v>2.8</v>
       </c>
-      <c r="P348">
+      <c r="P348" s="8">
+        <v>-20.095711750663618</v>
+      </c>
+      <c r="Q348">
         <v>-4.0192182217212409</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>43435</v>
       </c>
@@ -42768,11 +43813,14 @@
       <c r="O349" s="8">
         <v>2.7</v>
       </c>
-      <c r="P349">
+      <c r="P349" s="8">
+        <v>-13.105116525359989</v>
+      </c>
+      <c r="Q349">
         <v>-3.8327553781572945</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>43466</v>
       </c>
@@ -42819,11 +43867,14 @@
       <c r="O350" s="8">
         <v>2.7</v>
       </c>
-      <c r="P350">
+      <c r="P350" s="8">
+        <v>4.909740437520405</v>
+      </c>
+      <c r="Q350">
         <v>2.28791599829633</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>43497</v>
       </c>
@@ -42870,11 +43921,14 @@
       <c r="O351" s="8">
         <v>2.6</v>
       </c>
-      <c r="P351">
+      <c r="P351" s="8">
+        <v>8.361312040542753</v>
+      </c>
+      <c r="Q351">
         <v>5.0724637681160436</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>43525</v>
       </c>
@@ -42921,11 +43975,14 @@
       <c r="O352" s="8">
         <v>2.5</v>
       </c>
-      <c r="P352">
+      <c r="P352" s="8">
+        <v>3.4053383393992158</v>
+      </c>
+      <c r="Q352">
         <v>6.769630028167172</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>43556</v>
       </c>
@@ -42972,11 +44029,14 @@
       <c r="O353" s="8">
         <v>2.5</v>
       </c>
-      <c r="P353">
+      <c r="P353" s="8">
+        <v>7.6671961858906759</v>
+      </c>
+      <c r="Q353">
         <v>6.354001935468661</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>43586</v>
       </c>
@@ -43023,11 +44083,14 @@
       <c r="O354" s="8">
         <v>2.9</v>
       </c>
-      <c r="P354">
+      <c r="P354" s="8">
+        <v>-5.1870516315616129E-2</v>
+      </c>
+      <c r="Q354">
         <v>2.554510307261177</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>43617</v>
       </c>
@@ -43074,11 +44137,14 @@
       <c r="O355" s="8">
         <v>2.7</v>
       </c>
-      <c r="P355">
+      <c r="P355" s="8">
+        <v>-9.7679554298490476</v>
+      </c>
+      <c r="Q355">
         <v>0.23897661777792853</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>43647</v>
       </c>
@@ -43125,11 +44191,14 @@
       <c r="O356" s="8">
         <v>2.6</v>
       </c>
-      <c r="P356">
+      <c r="P356" s="8">
+        <v>-0.46927315299226774</v>
+      </c>
+      <c r="Q356">
         <v>2.0051299469439527</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>43678</v>
       </c>
@@ -43176,11 +44245,14 @@
       <c r="O357" s="8">
         <v>2.7</v>
       </c>
-      <c r="P357">
+      <c r="P357" s="8">
+        <v>-7.630442122395241</v>
+      </c>
+      <c r="Q357">
         <v>-6.0801883299517009E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>43709</v>
       </c>
@@ -43227,11 +44299,14 @@
       <c r="O358" s="8">
         <v>2.8</v>
       </c>
-      <c r="P358">
+      <c r="P358" s="8">
+        <v>6.4104538129112445</v>
+      </c>
+      <c r="Q358">
         <v>0.94013829231606971</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>43739</v>
       </c>
@@ -43278,11 +44353,14 @@
       <c r="O359" s="8">
         <v>2.5</v>
       </c>
-      <c r="P359">
+      <c r="P359" s="8">
+        <v>-4.9558942939396378</v>
+      </c>
+      <c r="Q359">
         <v>2.7434286626758433</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>43770</v>
       </c>
@@ -43329,11 +44407,14 @@
       <c r="O360" s="8">
         <v>2.5</v>
       </c>
-      <c r="P360">
+      <c r="P360" s="8">
+        <v>5.8594589721719439</v>
+      </c>
+      <c r="Q360">
         <v>-0.64349164160302541</v>
       </c>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>43800</v>
       </c>
@@ -43380,11 +44461,14 @@
       <c r="O361" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P361">
+      <c r="P361" s="8">
+        <v>6.4831067083505998</v>
+      </c>
+      <c r="Q361">
         <v>-1.0917234300645575</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>43831</v>
       </c>
@@ -43431,11 +44515,14 @@
       <c r="O362" s="8">
         <v>2.5</v>
       </c>
-      <c r="P362">
+      <c r="P362" s="8">
+        <v>-5.1778597404610691</v>
+      </c>
+      <c r="Q362">
         <v>4.6557239253777301</v>
       </c>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>43862</v>
       </c>
@@ -43482,11 +44569,14 @@
       <c r="O363" s="8">
         <v>2.4</v>
       </c>
-      <c r="P363">
+      <c r="P363" s="8">
+        <v>-12.797196127986279</v>
+      </c>
+      <c r="Q363">
         <v>3.2887417577944511</v>
       </c>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>43891</v>
       </c>
@@ -43533,11 +44623,14 @@
       <c r="O364" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P364">
+      <c r="P364" s="8">
+        <v>-42.484568632223016</v>
+      </c>
+      <c r="Q364">
         <v>-2.611741238141573</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>43922</v>
       </c>
@@ -43584,11 +44677,14 @@
       <c r="O365" s="8">
         <v>2.1</v>
       </c>
-      <c r="P365">
+      <c r="P365" s="8">
+        <v>-42.061767838125668</v>
+      </c>
+      <c r="Q365">
         <v>-8.0243302403967185</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>43952</v>
       </c>
@@ -43635,11 +44731,14 @@
       <c r="O366" s="8">
         <v>3.2</v>
       </c>
-      <c r="P366">
+      <c r="P366" s="8">
+        <v>58.217357967376358</v>
+      </c>
+      <c r="Q366">
         <v>2.3401940020806439E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>43983</v>
       </c>
@@ -43686,11 +44785,14 @@
       <c r="O367" s="8">
         <v>3</v>
       </c>
-      <c r="P367">
+      <c r="P367" s="8">
+        <v>37.222008311536584</v>
+      </c>
+      <c r="Q367">
         <v>6.5664563133303595</v>
       </c>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>44013</v>
       </c>
@@ -43737,11 +44839,14 @@
       <c r="O368" s="8">
         <v>3</v>
       </c>
-      <c r="P368">
+      <c r="P368" s="8">
+        <v>7.3891006679260602</v>
+      </c>
+      <c r="Q368">
         <v>6.0698922020037784</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>44044</v>
       </c>
@@ -43788,11 +44893,14 @@
       <c r="O369" s="8">
         <v>3.1</v>
       </c>
-      <c r="P369">
+      <c r="P369" s="8">
+        <v>3.5078571883422218</v>
+      </c>
+      <c r="Q369">
         <v>3.7838526288976446</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>44075</v>
       </c>
@@ -43839,11 +44947,14 @@
       <c r="O370" s="8">
         <v>2.6</v>
       </c>
-      <c r="P370">
+      <c r="P370" s="8">
+        <v>-8.6005006122247742</v>
+      </c>
+      <c r="Q370">
         <v>1.6712963319199119</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>44105</v>
       </c>
@@ -43890,11 +45001,14 @@
       <c r="O371" s="8">
         <v>2.6</v>
       </c>
-      <c r="P371">
+      <c r="P371" s="8">
+        <v>-1.759980444661706</v>
+      </c>
+      <c r="Q371">
         <v>0.49792531120333838</v>
       </c>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>44136</v>
       </c>
@@ -43941,11 +45055,14 @@
       <c r="O372" s="8">
         <v>2.8</v>
       </c>
-      <c r="P372">
+      <c r="P372" s="8">
+        <v>6.2275785145821283</v>
+      </c>
+      <c r="Q372">
         <v>-0.73275266141293072</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>44166</v>
       </c>
@@ -43992,11 +45109,14 @@
       <c r="O373" s="8">
         <v>2.5</v>
       </c>
-      <c r="P373">
+      <c r="P373" s="8">
+        <v>17.192278333806978</v>
+      </c>
+      <c r="Q373">
         <v>1.1297741604510085</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>44197</v>
       </c>
@@ -44043,11 +45163,14 @@
       <c r="O374" s="8">
         <v>3</v>
       </c>
-      <c r="P374">
+      <c r="P374" s="8">
+        <v>9.139295045755242</v>
+      </c>
+      <c r="Q374">
         <v>5.1045401844330138</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>44228</v>
       </c>
@@ -44094,11 +45217,14 @@
       <c r="O375" s="8">
         <v>3.3</v>
       </c>
-      <c r="P375">
+      <c r="P375" s="8">
+        <v>14.049577047178852</v>
+      </c>
+      <c r="Q375">
         <v>6.5692593527078298</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>44256</v>
       </c>
@@ -44145,11 +45271,14 @@
       <c r="O376" s="8">
         <v>3.1</v>
       </c>
-      <c r="P376">
+      <c r="P376" s="8">
+        <v>5.0315929764839034</v>
+      </c>
+      <c r="Q376">
         <v>8.499927760499439</v>
       </c>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>44287</v>
       </c>
@@ -44196,11 +45325,14 @@
       <c r="O377" s="8">
         <v>3.4</v>
       </c>
-      <c r="P377">
+      <c r="P377" s="8">
+        <v>-1.0555794915984449</v>
+      </c>
+      <c r="Q377">
         <v>9.8626909848720619</v>
       </c>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>44317</v>
       </c>
@@ -44247,11 +45379,14 @@
       <c r="O378" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P378">
+      <c r="P378" s="8">
+        <v>5.8957346098367234</v>
+      </c>
+      <c r="Q378">
         <v>9.6205261857153364</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>44348</v>
       </c>
@@ -44298,11 +45433,14 @@
       <c r="O379" s="8">
         <v>4.2</v>
       </c>
-      <c r="P379">
+      <c r="P379" s="8">
+        <v>6.7539749514263665</v>
+      </c>
+      <c r="Q379">
         <v>11.14879548282858</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>44378</v>
       </c>
@@ -44349,11 +45487,14 @@
       <c r="O380" s="8">
         <v>4.7</v>
       </c>
-      <c r="P380">
+      <c r="P380" s="8">
+        <v>2.7360665005809035</v>
+      </c>
+      <c r="Q380">
         <v>5.7726282315527326</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>44409</v>
       </c>
@@ -44400,11 +45541,14 @@
       <c r="O381" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P381">
+      <c r="P381" s="8">
+        <v>-5.7871980165089463</v>
+      </c>
+      <c r="Q381">
         <v>2.4790936363337606</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>44440</v>
       </c>
@@ -44451,11 +45595,14 @@
       <c r="O382" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P382">
+      <c r="P382" s="8">
+        <v>5.1863025129176146</v>
+      </c>
+      <c r="Q382">
         <v>3.2591650308699291</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>44470</v>
       </c>
@@ -44502,11 +45649,14 @@
       <c r="O383" s="8">
         <v>4.8</v>
       </c>
-      <c r="P383">
+      <c r="P383" s="8">
+        <v>12.148777741455092</v>
+      </c>
+      <c r="Q383">
         <v>9.9697422624038339</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>44501</v>
       </c>
@@ -44553,11 +45703,14 @@
       <c r="O384" s="8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="P384">
+      <c r="P384" s="8">
+        <v>-2.9783959414011321</v>
+      </c>
+      <c r="Q384">
         <v>5.8961130052170425</v>
       </c>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>44531</v>
       </c>
@@ -44604,11 +45757,14 @@
       <c r="O385" s="8">
         <v>4.8</v>
       </c>
-      <c r="P385">
+      <c r="P385" s="8">
+        <v>-8.3732532253305809</v>
+      </c>
+      <c r="Q385">
         <v>3.6870205937803124</v>
       </c>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>44562</v>
       </c>
@@ -44655,11 +45811,14 @@
       <c r="O386" s="8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="P386">
+      <c r="P386" s="8">
+        <v>16.484226326386427</v>
+      </c>
+      <c r="Q386">
         <v>10.097488540254389</v>
       </c>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>44593</v>
       </c>
@@ -44706,11 +45865,14 @@
       <c r="O387" s="8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="P387">
+      <c r="P387" s="8">
+        <v>12.281061978080054</v>
+      </c>
+      <c r="Q387">
         <v>10.960775107772347</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>44621</v>
       </c>
@@ -44757,11 +45919,14 @@
       <c r="O388" s="8">
         <v>5.4</v>
       </c>
-      <c r="P388">
+      <c r="P388" s="8">
+        <v>20.710825182287788</v>
+      </c>
+      <c r="Q388">
         <v>16.021655458275223</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>44652</v>
       </c>
@@ -44808,11 +45973,14 @@
       <c r="O389" s="8">
         <v>5.4</v>
       </c>
-      <c r="P389">
+      <c r="P389" s="8">
+        <v>-10.298300671876619</v>
+      </c>
+      <c r="Q389">
         <v>6.6990372307861916</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>44682</v>
       </c>
@@ -44859,11 +46027,14 @@
       <c r="O390" s="8">
         <v>5.3</v>
       </c>
-      <c r="P390">
+      <c r="P390" s="8">
+        <v>7.550004136740422</v>
+      </c>
+      <c r="Q390">
         <v>13.228228799518568</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>44713</v>
       </c>
@@ -44910,11 +46081,14 @@
       <c r="O391" s="8">
         <v>5.3</v>
       </c>
-      <c r="P391">
+      <c r="P391" s="8">
+        <v>8.466314372400543</v>
+      </c>
+      <c r="Q391">
         <v>16.483290910583733</v>
       </c>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>44743</v>
       </c>
@@ -44961,11 +46135,14 @@
       <c r="O392" s="8">
         <v>5.2</v>
       </c>
-      <c r="P392">
+      <c r="P392" s="8">
+        <v>-8.7718741118169863</v>
+      </c>
+      <c r="Q392">
         <v>-0.14174296600518307</v>
       </c>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>44774</v>
       </c>
@@ -45012,11 +46189,14 @@
       <c r="O393" s="8">
         <v>4.8</v>
       </c>
-      <c r="P393">
+      <c r="P393" s="8">
+        <v>-10.229666526822413</v>
+      </c>
+      <c r="Q393">
         <v>-0.42527913162058972</v>
       </c>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>44805</v>
       </c>
@@ -45063,11 +46243,14 @@
       <c r="O394" s="8">
         <v>4.7</v>
       </c>
-      <c r="P394">
+      <c r="P394" s="8">
+        <v>-10.67571581148245</v>
+      </c>
+      <c r="Q394">
         <v>2.5809414156011243</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>44835</v>
       </c>
@@ -45114,11 +46297,14 @@
       <c r="O395" s="8">
         <v>5</v>
       </c>
-      <c r="P395">
+      <c r="P395" s="8">
+        <v>3.9915069087159147</v>
+      </c>
+      <c r="Q395">
         <v>4.8677933209347772</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>44866</v>
       </c>
@@ -45165,11 +46351,14 @@
       <c r="O396" s="8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="P396">
+      <c r="P396" s="8">
+        <v>-2.0533709467723749</v>
+      </c>
+      <c r="Q396">
         <v>-1.2120317302658459</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>44896</v>
       </c>
@@ -45216,11 +46405,14 @@
       <c r="O397" s="8">
         <v>4.4000000000000004</v>
       </c>
-      <c r="P397">
+      <c r="P397" s="8">
+        <v>-11.324920194516547</v>
+      </c>
+      <c r="Q397">
         <v>-3.6841097574492867</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>44927</v>
       </c>
@@ -45267,11 +46459,14 @@
       <c r="O398" s="8">
         <v>3.9</v>
       </c>
-      <c r="P398">
+      <c r="P398" s="8">
+        <v>1.7926633695566845</v>
+      </c>
+      <c r="Q398">
         <v>9.5944366014480895</v>
       </c>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>44958</v>
       </c>
@@ -45318,16 +46513,19 @@
       <c r="O399" s="8">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P399">
+      <c r="P399" s="8">
+        <v>8.373041011376213E-2</v>
+      </c>
+      <c r="Q399">
         <v>6.6985326068788673</v>
       </c>
     </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>44986</v>
       </c>
       <c r="B400" s="3">
-        <f t="shared" ref="B400:C402" ca="1" si="6">(($B400-$B399)/$B399)*100</f>
+        <f t="shared" ref="B400" ca="1" si="6">(($B400-$B399)/$B399)*100</f>
         <v>1.523549211651857</v>
       </c>
       <c r="C400">
@@ -45369,11 +46567,14 @@
       <c r="O400" s="8">
         <v>3.6</v>
       </c>
-      <c r="P400">
+      <c r="P400" s="8">
+        <v>-5.0259153283441842</v>
+      </c>
+      <c r="Q400">
         <v>3.9728759473475783</v>
       </c>
     </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>45017</v>
       </c>
@@ -45416,11 +46617,14 @@
       <c r="O401" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P401">
+      <c r="P401" s="8">
+        <v>8.1547846717553796</v>
+      </c>
+      <c r="Q401">
         <v>6.0708464199100973</v>
       </c>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>45047</v>
       </c>
@@ -45457,12 +46661,16 @@
       <c r="N402">
         <v>0.4629043449194411</v>
       </c>
-      <c r="P402">
+      <c r="P402" s="2">
+        <v>-10.675072516729662</v>
+      </c>
+      <c r="Q402">
         <v>3.0221220122427983</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
